--- a/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
+++ b/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
@@ -1,27 +1,100 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\India\Models\eps-1.3.3-india-wipB3\InputData\elec\BPMCCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\elec\BPMCCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E84351-C845-4CC3-B130-770F238F99E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="11565" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Calcs" sheetId="3" r:id="rId2"/>
-    <sheet name="BPMCCS" sheetId="2" r:id="rId3"/>
+    <sheet name="MNRE+CEA" sheetId="4" r:id="rId2"/>
+    <sheet name="RE target adjustment" sheetId="5" r:id="rId3"/>
+    <sheet name="Calcs" sheetId="3" r:id="rId4"/>
+    <sheet name="BPMCCS" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Deepthi Swamy</author>
+  </authors>
+  <commentList>
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{58B7D590-D00E-4396-9EBD-5B84BFF48E94}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deepthi Swamy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+CEA Monthly Installed Capacity report - Sep 2019
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={A1EF28D1-9FBF-4412-8119-632B82C52746}</author>
+    <author>tc={04199A82-E924-4B1D-8DF3-98C0B7CAC9B8}</author>
+  </authors>
+  <commentList>
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{A1EF28D1-9FBF-4412-8119-632B82C52746}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    http://cea.nic.in/reports/monthly/installedcapacity/2018/installed_capacity-12.pdf</t>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="1" shapeId="0" xr:uid="{04199A82-E924-4B1D-8DF3-98C0B7CAC9B8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    http://cea.nic.in/reports/monthly/installedcapacity/2019/installed_capacity-12.pdf</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="166">
   <si>
     <t>Note:</t>
   </si>
@@ -80,18 +153,12 @@
     <t>Nuclear</t>
   </si>
   <si>
-    <t>Natural Gas Nonpeaker</t>
-  </si>
-  <si>
     <t>2017-2022</t>
   </si>
   <si>
     <t>2022-2027</t>
   </si>
   <si>
-    <t>Committed Capacity Additions</t>
-  </si>
-  <si>
     <t>hydro</t>
   </si>
   <si>
@@ -101,44 +168,486 @@
     <t>http://www.cea.nic.in/reports/committee/nep/nep_jan_2018.pdf</t>
   </si>
   <si>
-    <t>Capacity Additions</t>
-  </si>
-  <si>
     <t>Annexures 5.1, 5.2, 5.3, 5.4</t>
   </si>
   <si>
-    <t>Solar 2017 and 2018</t>
-  </si>
-  <si>
-    <t>Renewables Now</t>
-  </si>
-  <si>
-    <t>India adds 9.6 GW of solar in 2017 - Mercom</t>
-  </si>
-  <si>
-    <t>https://renewablesnow.com/news/india-adds-96-gw-of-solar-in-2017-mercom-602813/</t>
-  </si>
-  <si>
-    <t>Wind 2017</t>
-  </si>
-  <si>
-    <t>Quartz India</t>
-  </si>
-  <si>
-    <t>After the storm of 2017, India’s wind power sector is settling down</t>
-  </si>
-  <si>
-    <t>https://qz.com/1245556/indias-wind-power-sector-had-a-terrible-year-in-2017-can-it-turn-around/</t>
-  </si>
-  <si>
-    <t>We assume 10 GW/year of solar tenders through 2022, independent of demand.</t>
+    <t>Battery storage</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Hydro imports</t>
+  </si>
+  <si>
+    <t>Small hydro</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>Total installed capacity (2029-30)</t>
+  </si>
+  <si>
+    <t>Committed Capacity 
+Additions (MW)</t>
+  </si>
+  <si>
+    <t>Natural Gas 
+Nonpeaker</t>
+  </si>
+  <si>
+    <t>Source: CEA's optimal generation mix for 2029-30</t>
+  </si>
+  <si>
+    <t>http://cea.nic.in/reports/others/planning/irp/Optimal_generation_mix_report.pdf</t>
+  </si>
+  <si>
+    <t>Capacity Additions till 2027 (conventional sources)</t>
+  </si>
+  <si>
+    <t>Capacity Additions till 2022 (RES)</t>
+  </si>
+  <si>
+    <t>Table 6.3</t>
+  </si>
+  <si>
+    <t>Year-wise targets of Renewable Energy Sources (MW)</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>2017-18</t>
+  </si>
+  <si>
+    <t>2018-19</t>
+  </si>
+  <si>
+    <t>2019-20</t>
+  </si>
+  <si>
+    <t>2020-21</t>
+  </si>
+  <si>
+    <t>2021-22</t>
+  </si>
+  <si>
+    <t>Capacity Addition *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small Hydro </t>
+  </si>
+  <si>
+    <t>*The capacity has been adjusted to arrive at total RES capacity of 175 GW by 2021-22</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Lignite</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydro </t>
+  </si>
+  <si>
+    <t>Small Hydro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar </t>
+  </si>
+  <si>
+    <t>Balance from 
+2030 optimal mx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we subtract [existing capacity + NEP additions till 2022] from the 2030 target of the optimal gen mix, </t>
+  </si>
+  <si>
+    <t>Capacity as on 
+30.09.2019</t>
+  </si>
+  <si>
+    <t>As on2022</t>
+  </si>
+  <si>
+    <t>As on 2027</t>
+  </si>
+  <si>
+    <t>Mandated Construction (MW)</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
+    <t>natural gas nonpeaker</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
+    <t>solar PV</t>
+  </si>
+  <si>
+    <t>solar thermal</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>geothermal</t>
+  </si>
+  <si>
+    <t>petroleum</t>
+  </si>
+  <si>
+    <t>natural gas peaker</t>
+  </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>The purpose of this variable is to specify the electricity generating capacity</t>
+  </si>
+  <si>
+    <t>in MW that will be built each year in the BAU case before the model considers</t>
+  </si>
+  <si>
+    <t>what else to build in order to satisfy demand, satisfy an RPS (in the policy</t>
+  </si>
+  <si>
+    <t>case), etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">which have been a significant barrier for tender participation in the RE auctions. </t>
+  </si>
+  <si>
+    <t>40% installed capacity is from non-fossil fuels.</t>
+  </si>
+  <si>
+    <t>we are still left with a balance of capacities that can be added between 2023-30, for wind, solar, hydro and coal.</t>
+  </si>
+  <si>
+    <t>Hence, we don't account for this balance capacity between 2023-30, as the draft report is not an official plan like the NEP,</t>
+  </si>
+  <si>
+    <t>(Further, there are media reports of verbal announcements of a 450 GW RE target by 2030, under the Paris Agreement.</t>
+  </si>
+  <si>
+    <t>However, the target is yet to be reflected in official policy documents of MNRE or CEA).</t>
+  </si>
+  <si>
+    <t>However, there are recent reports of potential removal of tariff caps for solar and wind tenders,</t>
+  </si>
+  <si>
+    <t>SHP</t>
+  </si>
+  <si>
+    <t>MSW</t>
+  </si>
+  <si>
+    <t>Solar PV</t>
+  </si>
+  <si>
+    <t>http://cea.nic.in/reports/monthly/installedcapacity/2019/installed_capacity-12.pdf</t>
+  </si>
+  <si>
+    <t>Installed Capacity (MW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar PV </t>
+  </si>
+  <si>
+    <t>% ratio</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>2022 RE Target (GW)</t>
+  </si>
+  <si>
+    <t>Balance 
+requirement</t>
+  </si>
+  <si>
+    <t>Capacity Additions 2027-30 (for calculation only - not used)</t>
+  </si>
+  <si>
+    <t>Draft Report on Optimal Generation Mix for 2029-30</t>
+  </si>
+  <si>
+    <t>Central Electricity Authority</t>
+  </si>
+  <si>
+    <t>Table 4</t>
+  </si>
+  <si>
+    <t>NITI Aayog</t>
+  </si>
+  <si>
+    <t>Page iv</t>
+  </si>
+  <si>
+    <t>https://niti.gov.in/writereaddata/files/175-GW-Renewable-Energy.pdf</t>
+  </si>
+  <si>
+    <t>Report of the Expert Group on 175 GW RE by 2022</t>
+  </si>
+  <si>
+    <t>RE Wind, Solar, Biomass, SHP capacity target - 2022</t>
+  </si>
+  <si>
+    <t>Source: NITI Aayog</t>
+  </si>
+  <si>
+    <t>Source: CEA monthly reports for Dec 2018, 2019</t>
+  </si>
+  <si>
+    <t>Expected target 
+achievement (MW)*</t>
+  </si>
+  <si>
+    <t>* Calculated based on success rate fraction in About tab</t>
+  </si>
+  <si>
+    <t>Source: CEA - National Electricity Plan Vol I</t>
+  </si>
+  <si>
+    <t>Official RE target for 2022</t>
+  </si>
+  <si>
+    <t>Balance Capacity Addition required to meet realistic/expected target</t>
+  </si>
+  <si>
+    <t>Actual Installed Capacities for RE in 2018 and 2019</t>
+  </si>
+  <si>
+    <t>Installed Capacity Actuals (2018, 2019) &amp; Balance required to reach expected target</t>
+  </si>
+  <si>
+    <t>|&lt;-- Balance requirement capacity added till 2022 (wind and solar)</t>
+  </si>
+  <si>
+    <t>|&lt;-- Trend based (2018 - 2019) capacity added till 2022 (biomass, SHP and MSW)</t>
+  </si>
+  <si>
+    <t>Yearly Capacity Addition (MW)</t>
+  </si>
+  <si>
+    <t>Actual Yearly addition (2019) and balance yearly capacity to reach expected target</t>
+  </si>
+  <si>
+    <t>Actual RE capacity additions 2018, 2019</t>
+  </si>
+  <si>
+    <t>Monthly Installed Capacity Reports</t>
+  </si>
+  <si>
+    <t>Dec 2018, Dec 2019</t>
+  </si>
+  <si>
+    <t>http://cea.nic.in/reports/monthly/installedcapacity/2018/installed_capacity-12.pdf</t>
+  </si>
+  <si>
+    <t>Analysis of progress towards 175 GW target</t>
+  </si>
+  <si>
+    <t>CRISIL</t>
+  </si>
+  <si>
+    <t>REturn to Uncertainty</t>
+  </si>
+  <si>
+    <t>https://www.crisil.com/en/home/our-analysis/reports/2019/10/return-to-uncertainty.html</t>
+  </si>
+  <si>
+    <t>Projected RE installed capacity for FY22</t>
+  </si>
+  <si>
+    <t>News on removal of tariff caps for solar and wind auctions</t>
+  </si>
+  <si>
+    <t>MERCOM India</t>
+  </si>
+  <si>
+    <t>MNRE Mulls Removal of Tariff Caps for Solar and Wind Tenders</t>
+  </si>
+  <si>
+    <t>https://mercomindia.com/mnre-mulls-removal-tariff-caps-solar-wind/</t>
+  </si>
+  <si>
+    <t>Classification of large hydro as RE</t>
+  </si>
+  <si>
+    <t>Hindu/Central Electricity Authority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New hydro policy to help meet renewables target </t>
+  </si>
+  <si>
+    <t>https://www.thehindu.com/business/Economy/hydro-policy-target/article26561711.ece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES addition is adjusted by NEP to reach 175 GW by 2022. However, the target is less than 50% reached as of 2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">with downward trends in solar and wind capacity additions in the recent years. A study by CRISIL </t>
+  </si>
+  <si>
+    <t>estimates that only 104 GW would be achieved by 2022 (which is ~60% of the intended target),</t>
+  </si>
+  <si>
+    <t>due to various hurdles in project commissioning.</t>
+  </si>
+  <si>
+    <t>Further, there is a reclassification of larger hydro as RE recently, which could technically</t>
+  </si>
+  <si>
+    <t>make it possible to reach, or even surpass the 175 GW target by 2022 in terms of a combined</t>
+  </si>
+  <si>
+    <t>and not just by adding large hydro to the mix, which would significantly increase the size of RE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We assume that with recent public announcements of a 450 GW target by 2030, and the </t>
+  </si>
+  <si>
+    <t>potential removal of tariff caps for wind and solar tenders, it would be possible to reach about</t>
+  </si>
+  <si>
+    <t>80% of the mandated RE target by 2022. The balance capacity remaining, after subtracting the</t>
+  </si>
+  <si>
+    <t>current RE capacities for each source, is divided between 2020 to 2022 for wind and solar.</t>
+  </si>
+  <si>
+    <t>For SHP, biomass (and MSW), the targets are already almost reached, and we assume that</t>
+  </si>
+  <si>
+    <t>they will continue to grow at the same rate till 2022 to help reach the 175 GW combined target.</t>
+  </si>
+  <si>
+    <t>The success rate % can be changed in the About tab to accordingly assess the yearly balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capacity additions to reach the "adjusted" target. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The draft Optimal Generation Mix for 2029-30 by CEA contains higher targets of RE by 2030 which would be in line with NDC target of:</t>
+    </r>
+  </si>
+  <si>
+    <t>and more suited to a high RE scenario than a BAU.</t>
+  </si>
+  <si>
+    <t>The mandated yearly capacity is added only form 2019 onwards, as the capacity added in 2018 is already</t>
+  </si>
+  <si>
+    <t>accounted in 'Start Year Capacities' variable which has installed capacity as of December, 2018.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In case of 2019, actual capacity added is used for the mandated values as actuals are available. </t>
+  </si>
+  <si>
+    <t>This helps to keep the BAU closer to reality.</t>
+  </si>
+  <si>
+    <t>the main source for capacity additions till 2027 for conventional sources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renewable Energy Sources (RES): </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Conventional Sources (including large hydro): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">National Electricity Plan (NEP) is considered </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">we interpret the overall RE target to be achieved on reaching the disaggregated targets, </t>
+  </si>
+  <si>
+    <t>RE target. But since the 175 GW target was disaggregated (for wind, solar, biomass and SHP),</t>
+  </si>
+  <si>
+    <t>Fraction of RE target achievable by 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,8 +678,63 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,8 +747,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -192,24 +786,555 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -226,6 +1351,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Deepthi Swamy" id="{210B3C1B-F5E7-4C56-B823-E1EECCDB5F2A}" userId="0118328b9c39827d" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -304,6 +1435,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -339,6 +1487,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -513,221 +1678,2024 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="I4" dT="2020-02-13T17:43:38.19" personId="{210B3C1B-F5E7-4C56-B823-E1EECCDB5F2A}" id="{A1EF28D1-9FBF-4412-8119-632B82C52746}">
+    <text>http://cea.nic.in/reports/monthly/installedcapacity/2018/installed_capacity-12.pdf</text>
+  </threadedComment>
+  <threadedComment ref="I5" dT="2020-02-13T06:08:56.66" personId="{210B3C1B-F5E7-4C56-B823-E1EECCDB5F2A}" id="{04199A82-E924-4B1D-8DF3-98C0B7CAC9B8}">
+    <text>http://cea.nic.in/reports/monthly/installedcapacity/2019/installed_capacity-12.pdf</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67.140625" customWidth="1"/>
+    <col min="4" max="4" width="59.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="94">
+        <v>2018</v>
+      </c>
+      <c r="D6" s="94">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
-        <v>43101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="93" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="94">
         <v>2018</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D13" s="94">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="7">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="93" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="94" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="94">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="93" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="93" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="94">
+        <v>2019</v>
+      </c>
+      <c r="D27" s="94">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
+      <c r="B29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="93" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="94">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="108"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{CDD076DF-E58C-4E4E-B8F8-AA26FC0B259A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459ACE60-3B16-4977-AF8F-C978646F36FF}">
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="9">
+        <v>831502</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="7">
+        <v>64089</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="13">
+        <v>47855</v>
+      </c>
+      <c r="M2" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="38"/>
+      <c r="B3" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="7">
+        <v>5000</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="13">
+        <v>3300</v>
+      </c>
+      <c r="M3" s="18">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="26">
+        <v>15000</v>
+      </c>
+      <c r="C4" s="26">
+        <v>16000</v>
+      </c>
+      <c r="D4" s="26">
+        <v>19000</v>
+      </c>
+      <c r="E4" s="26">
+        <v>19000</v>
+      </c>
+      <c r="F4" s="26">
+        <v>18711</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4356</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="13">
+        <v>406.15</v>
+      </c>
+      <c r="M4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="26">
+        <v>4700</v>
+      </c>
+      <c r="C5" s="26">
+        <v>5300</v>
+      </c>
+      <c r="D5" s="26">
+        <v>6000</v>
+      </c>
+      <c r="E5" s="26">
+        <v>6000</v>
+      </c>
+      <c r="F5" s="26">
+        <v>5720</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="7">
+        <v>24350</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="20">
+        <v>6822.5</v>
+      </c>
+      <c r="M5" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="25">
+        <v>350</v>
+      </c>
+      <c r="C6" s="25">
+        <v>350</v>
+      </c>
+      <c r="D6" s="25">
+        <v>350</v>
+      </c>
+      <c r="E6" s="25">
+        <v>350</v>
+      </c>
+      <c r="F6" s="25">
+        <v>304</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="7">
+        <v>266827</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="25">
+        <v>100</v>
+      </c>
+      <c r="C7" s="25">
+        <v>100</v>
+      </c>
+      <c r="D7" s="25">
+        <v>100</v>
+      </c>
+      <c r="E7" s="25">
+        <v>100</v>
+      </c>
+      <c r="F7" s="25">
+        <v>220</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="7">
+        <v>16880</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="28">
+        <f>SUM(B4:F7)</f>
+        <v>117755</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="7">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="H9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="7">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="H10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="7">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="98"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="27">
+        <v>196895</v>
+      </c>
+      <c r="C16" s="28">
+        <f>L2+B16</f>
+        <v>244750</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28">
+        <f>I6-C16</f>
+        <v>22077</v>
+      </c>
+      <c r="H16" s="32"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="27">
+        <v>6260</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="27">
+        <v>24937</v>
+      </c>
+      <c r="C18" s="27">
+        <f>L4+B18</f>
+        <v>25343.15</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28">
+        <f>I5-C18</f>
+        <v>-993.15000000000146</v>
+      </c>
+      <c r="H18" s="41"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="27">
+        <v>510</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="27">
+        <v>6780</v>
+      </c>
+      <c r="C20" s="27">
+        <f>L3+B20</f>
+        <v>10080</v>
+      </c>
+      <c r="D20" s="27">
+        <f>M3+C20</f>
+        <v>16880</v>
+      </c>
+      <c r="E20" s="28">
+        <f>I7-D20</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="27">
+        <v>45399</v>
+      </c>
+      <c r="C21" s="27">
+        <f>L5+B21</f>
+        <v>52221.5</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28">
+        <f>I2-C21</f>
+        <v>11867.5</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="27">
+        <v>4611</v>
+      </c>
+      <c r="C22" s="27">
+        <f>SUM(B7:F7)+B22</f>
+        <v>5231</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28">
+        <f>I3-C22</f>
+        <v>-231</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="27">
+        <v>36930</v>
+      </c>
+      <c r="C23" s="28">
+        <f>SUM(B5:F5)+B23</f>
+        <v>64650</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28">
+        <f>I9-C23</f>
+        <v>75350</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="36"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="27">
+        <f>9806+140</f>
+        <v>9946</v>
+      </c>
+      <c r="C24" s="27">
+        <f>SUM(B6:F6)+B24</f>
+        <v>11650</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28">
+        <f>I10-C24</f>
+        <v>-1650</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="27">
+        <v>31102</v>
+      </c>
+      <c r="C25" s="28">
+        <f>SUM(B4:F4)+B25</f>
+        <v>118813</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28">
+        <f>I8-C25</f>
+        <v>181187</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K6:M6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AEF7C4-F01C-45D7-965E-399B945C4ED1}">
+  <dimension ref="A1:R25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="102" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="101"/>
+      <c r="E1" s="103" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="I1" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+    </row>
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="59">
+        <v>175</v>
+      </c>
+      <c r="C2" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="56">
+        <f>About!A69*'RE target adjustment'!B2*1000</f>
+        <v>140000</v>
+      </c>
+      <c r="G2" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="69"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="13">
+        <v>100</v>
+      </c>
+      <c r="C3" s="54">
+        <f>B3/175</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="57">
+        <f>C3*$F$2</f>
+        <v>80000</v>
+      </c>
+      <c r="G3" s="60">
+        <f>F3-C12</f>
+        <v>46269.440000000002</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3" s="72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="13">
+        <v>60</v>
+      </c>
+      <c r="C4" s="54">
+        <f>B4/175</f>
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="58">
+        <f>C4*$F$2</f>
+        <v>48000</v>
+      </c>
+      <c r="G4" s="60">
+        <f>F4-C13</f>
+        <v>10494.82</v>
+      </c>
+      <c r="I4" s="13">
+        <v>2018</v>
+      </c>
+      <c r="J4" s="46">
+        <v>45399.22</v>
+      </c>
+      <c r="K4" s="33">
+        <v>4517.45</v>
+      </c>
+      <c r="L4" s="33">
+        <v>35138.15</v>
+      </c>
+      <c r="M4" s="33">
+        <v>9075.5</v>
+      </c>
+      <c r="N4" s="33">
+        <v>138.30000000000001</v>
+      </c>
+      <c r="O4" s="47">
+        <v>25212.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="52">
+        <v>5</v>
+      </c>
+      <c r="C5" s="54">
+        <f>B5/175</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="58">
+        <f>B5*1000</f>
+        <v>5000</v>
+      </c>
+      <c r="G5" s="62"/>
+      <c r="I5" s="13">
+        <v>2019</v>
+      </c>
+      <c r="J5" s="48">
+        <v>45399.22</v>
+      </c>
+      <c r="K5" s="49">
+        <v>4671.5600000000004</v>
+      </c>
+      <c r="L5" s="49">
+        <v>37505.18</v>
+      </c>
+      <c r="M5" s="49">
+        <v>9861.31</v>
+      </c>
+      <c r="N5" s="49">
+        <v>139.80000000000001</v>
+      </c>
+      <c r="O5" s="50">
+        <v>33730.559999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="52">
+        <v>10</v>
+      </c>
+      <c r="C6" s="54">
+        <f>B6/175</f>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="59">
+        <f>B6*1000</f>
+        <v>10000</v>
+      </c>
+      <c r="G6" s="63"/>
+      <c r="I6" s="73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="73"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="105" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="104"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="R10" s="45"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
+      <c r="B11" s="29">
+        <v>2018</v>
+      </c>
+      <c r="C11" s="29">
+        <v>2019</v>
+      </c>
+      <c r="D11" s="29">
+        <v>2020</v>
+      </c>
+      <c r="E11" s="29">
+        <v>2021</v>
+      </c>
+      <c r="F11" s="29">
+        <v>2022</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="51">
+        <f>O4</f>
+        <v>25212.26</v>
+      </c>
+      <c r="C12" s="51">
+        <f>O5</f>
+        <v>33730.559999999998</v>
+      </c>
+      <c r="D12" s="74">
+        <f>C12+$G$3/3</f>
+        <v>49153.706666666665</v>
+      </c>
+      <c r="E12" s="74">
+        <f>D12+$G$3/3</f>
+        <v>64576.853333333333</v>
+      </c>
+      <c r="F12" s="75">
+        <f>E12+$G$3/3</f>
+        <v>80000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="64"/>
+      <c r="I12" s="33"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="51">
+        <f>L4</f>
+        <v>35138.15</v>
+      </c>
+      <c r="C13" s="51">
+        <f>L5</f>
+        <v>37505.18</v>
+      </c>
+      <c r="D13" s="76">
+        <f>C13+$G$4/3</f>
+        <v>41003.453333333331</v>
+      </c>
+      <c r="E13" s="76">
+        <f>D13+$G$4/3</f>
+        <v>44501.726666666662</v>
+      </c>
+      <c r="F13" s="77">
+        <f>E13+$G$4/3</f>
+        <v>47999.999999999993</v>
+      </c>
+      <c r="G13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="51">
+        <f>M4</f>
+        <v>9075.5</v>
+      </c>
+      <c r="C14" s="51">
+        <f>M5</f>
+        <v>9861.31</v>
+      </c>
+      <c r="D14" s="76">
+        <f>TREND($B$14:$C$14,$B$11:$C$11,D11)</f>
+        <v>10647.120000000112</v>
+      </c>
+      <c r="E14" s="76">
+        <f>TREND($B$14:$C$14,$B$11:$C$11,E11)</f>
+        <v>11432.930000000168</v>
+      </c>
+      <c r="F14" s="77">
+        <f>TREND($B$14:$C$14,$B$11:$C$11,F11)</f>
+        <v>12218.739999999991</v>
+      </c>
+      <c r="G14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="51">
+        <f>K4</f>
+        <v>4517.45</v>
+      </c>
+      <c r="C15" s="51">
+        <f>K5</f>
+        <v>4671.5600000000004</v>
+      </c>
+      <c r="D15" s="76">
+        <f>TREND($B$15:$C$15,$B$11:$C$11,D11)</f>
+        <v>4825.6699999999837</v>
+      </c>
+      <c r="E15" s="76">
+        <f>TREND($B$15:$C$15,$B$11:$C$11,E11)</f>
+        <v>4979.7799999999697</v>
+      </c>
+      <c r="F15" s="77">
+        <f>TREND($B$15:$C$15,$B$11:$C$11,F11)</f>
+        <v>5133.8899999999558</v>
+      </c>
+      <c r="G15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="51">
+        <f>N4</f>
+        <v>138.30000000000001</v>
+      </c>
+      <c r="C16" s="51">
+        <f>N5</f>
+        <v>139.80000000000001</v>
+      </c>
+      <c r="D16" s="78">
+        <f>TREND($B$16:$C$16,$B$11:$C$11,D11)</f>
+        <v>141.30000000000018</v>
+      </c>
+      <c r="E16" s="78">
+        <f>TREND($B$16:$C$16,$B$11:$C$11,E11)</f>
+        <v>142.80000000000018</v>
+      </c>
+      <c r="F16" s="79">
+        <f>TREND($B$16:$C$16,$B$11:$C$11,F11)</f>
+        <v>144.30000000000018</v>
+      </c>
+      <c r="G16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="103" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="81">
+        <v>2018</v>
+      </c>
+      <c r="C20" s="81">
+        <v>2019</v>
+      </c>
+      <c r="D20" s="81">
+        <v>2020</v>
+      </c>
+      <c r="E20" s="81">
+        <v>2021</v>
+      </c>
+      <c r="F20" s="85">
+        <v>2022</v>
+      </c>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="82"/>
+      <c r="C21" s="86">
+        <f>C12-B12</f>
+        <v>8518.2999999999993</v>
+      </c>
+      <c r="D21" s="86">
+        <f>D12-C12</f>
+        <v>15423.146666666667</v>
+      </c>
+      <c r="E21" s="86">
+        <f t="shared" ref="E21:F21" si="0">E12-D12</f>
+        <v>15423.146666666667</v>
+      </c>
+      <c r="F21" s="87">
+        <f t="shared" si="0"/>
+        <v>15423.146666666667</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="83"/>
+      <c r="C22" s="88">
+        <f>C13-B13</f>
+        <v>2367.0299999999988</v>
+      </c>
+      <c r="D22" s="88">
+        <f t="shared" ref="D22:F25" si="1">D13-C13</f>
+        <v>3498.2733333333308</v>
+      </c>
+      <c r="E22" s="88">
+        <f t="shared" si="1"/>
+        <v>3498.2733333333308</v>
+      </c>
+      <c r="F22" s="89">
+        <f t="shared" si="1"/>
+        <v>3498.2733333333308</v>
+      </c>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="83"/>
+      <c r="C23" s="88">
+        <f>C14-B14</f>
+        <v>785.80999999999949</v>
+      </c>
+      <c r="D23" s="88">
+        <f t="shared" si="1"/>
+        <v>785.81000000011227</v>
+      </c>
+      <c r="E23" s="88">
+        <f t="shared" si="1"/>
+        <v>785.81000000005588</v>
+      </c>
+      <c r="F23" s="89">
+        <f t="shared" si="1"/>
+        <v>785.80999999982305</v>
+      </c>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="83"/>
+      <c r="C24" s="88">
+        <f t="shared" ref="C24:C25" si="2">C15-B15</f>
+        <v>154.11000000000058</v>
+      </c>
+      <c r="D24" s="88">
+        <f t="shared" si="1"/>
+        <v>154.1099999999833</v>
+      </c>
+      <c r="E24" s="88">
+        <f t="shared" si="1"/>
+        <v>154.10999999998603</v>
+      </c>
+      <c r="F24" s="89">
+        <f t="shared" si="1"/>
+        <v>154.10999999998603</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="84"/>
+      <c r="C25" s="90">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="D25" s="90">
+        <f t="shared" si="1"/>
+        <v>1.5000000000001705</v>
+      </c>
+      <c r="E25" s="90">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="F25" s="91">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2018</v>
+      </c>
+      <c r="C1">
+        <v>2019</v>
+      </c>
+      <c r="D1">
+        <v>2020</v>
+      </c>
+      <c r="E1">
+        <v>2021</v>
+      </c>
+      <c r="F1">
+        <v>2022</v>
+      </c>
+      <c r="G1">
+        <f>F1+1</f>
+        <v>2023</v>
+      </c>
+      <c r="H1">
+        <f t="shared" ref="H1:K1" si="0">G1+1</f>
+        <v>2024</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="K1">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>47855</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <f>'MNRE+CEA'!L2/5</f>
+        <v>9571</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:F2" si="1">C2</f>
+        <v>9571</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="1"/>
+        <v>9571</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="1"/>
+        <v>9571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>3300</v>
-      </c>
-      <c r="C3">
-        <v>6800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C3" s="45">
+        <f>'MNRE+CEA'!L4/5</f>
+        <v>81.22999999999999</v>
+      </c>
+      <c r="D3" s="45">
+        <f t="shared" ref="D3:F3" si="2">C3</f>
+        <v>81.22999999999999</v>
+      </c>
+      <c r="E3" s="45">
+        <f t="shared" si="2"/>
+        <v>81.22999999999999</v>
+      </c>
+      <c r="F3" s="45">
+        <f t="shared" si="2"/>
+        <v>81.22999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>406.15</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <f>'MNRE+CEA'!L3/5</f>
+        <v>660</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:F4" si="3">C4</f>
+        <v>660</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="3"/>
+        <v>660</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>660</v>
+      </c>
+      <c r="G4">
+        <f>'MNRE+CEA'!M3/5</f>
+        <v>1360</v>
+      </c>
+      <c r="H4">
+        <f>G4</f>
+        <v>1360</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:K4" si="4">H4</f>
+        <v>1360</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>1360</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>6822.5</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="C5" s="45">
+        <f>'MNRE+CEA'!L5/5+'RE target adjustment'!C24</f>
+        <v>1518.6100000000006</v>
+      </c>
+      <c r="D5" s="45">
+        <f t="shared" ref="D5:E5" si="5">C5</f>
+        <v>1518.6100000000006</v>
+      </c>
+      <c r="E5" s="45">
+        <f t="shared" si="5"/>
+        <v>1518.6100000000006</v>
+      </c>
+      <c r="F5" s="45">
+        <f>'MNRE+CEA'!L5/5+'RE target adjustment'!F24</f>
+        <v>1518.609999999986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="109" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="24">
+        <v>0</v>
+      </c>
+      <c r="C6" s="24">
+        <f>'RE target adjustment'!C22</f>
+        <v>2367.0299999999988</v>
+      </c>
+      <c r="D6" s="24">
+        <f>'RE target adjustment'!D22</f>
+        <v>3498.2733333333308</v>
+      </c>
+      <c r="E6" s="24">
+        <f>'RE target adjustment'!E22</f>
+        <v>3498.2733333333308</v>
+      </c>
+      <c r="F6" s="24">
+        <f>'RE target adjustment'!F22</f>
+        <v>3498.2733333333308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="24">
+        <v>0</v>
+      </c>
+      <c r="C7" s="24">
+        <f>'RE target adjustment'!C21</f>
+        <v>8518.2999999999993</v>
+      </c>
+      <c r="D7" s="24">
+        <f>'RE target adjustment'!D21</f>
+        <v>15423.146666666667</v>
+      </c>
+      <c r="E7" s="24">
+        <f>'RE target adjustment'!E21</f>
+        <v>15423.146666666667</v>
+      </c>
+      <c r="F7" s="24">
+        <f>'RE target adjustment'!F21</f>
+        <v>15423.146666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="45">
+        <f>'RE target adjustment'!C23</f>
+        <v>785.80999999999949</v>
+      </c>
+      <c r="D9" s="45">
+        <f>'RE target adjustment'!D23</f>
+        <v>785.81000000011227</v>
+      </c>
+      <c r="E9" s="45">
+        <f>'RE target adjustment'!E23</f>
+        <v>785.81000000005588</v>
+      </c>
+      <c r="F9" s="45">
+        <f>'RE target adjustment'!F23</f>
+        <v>785.80999999982305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="109" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="45">
+        <f>'RE target adjustment'!C25</f>
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="45">
+        <f>'RE target adjustment'!D25</f>
+        <v>1.5000000000001705</v>
+      </c>
+      <c r="E17" s="45">
+        <f>'RE target adjustment'!E25</f>
+        <v>1.5</v>
+      </c>
+      <c r="F17" s="45">
+        <f>'RE target adjustment'!F25</f>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -735,15 +3703,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,7 +3721,7 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="B1">
         <v>2015</v>
@@ -866,7 +3834,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -875,23 +3843,26 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f>Calcs!$B2/5</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>Calcs!C2</f>
         <v>9571</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
-        <v>0</v>
+        <f>Calcs!D2</f>
+        <v>9571</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <f>Calcs!E2</f>
+        <v>9571</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <f>Calcs!F2</f>
+        <v>9571</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -980,7 +3951,7 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -989,23 +3960,26 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <f>Calcs!$B3/5</f>
-        <v>660</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+      <c r="F3" s="45">
+        <f>Calcs!C3</f>
+        <v>81.22999999999999</v>
+      </c>
+      <c r="G3" s="45">
+        <f>Calcs!D3</f>
+        <v>81.22999999999999</v>
+      </c>
+      <c r="H3" s="45">
+        <f>Calcs!E3</f>
+        <v>81.22999999999999</v>
+      </c>
+      <c r="I3" s="45">
+        <f>Calcs!F3</f>
+        <v>81.22999999999999</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1094,7 +4068,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1103,38 +4077,46 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f>Calcs!$B4/5</f>
-        <v>81.22999999999999</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <f>Calcs!C4</f>
+        <v>660</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <f>Calcs!D4</f>
+        <v>660</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <f>Calcs!E4</f>
+        <v>660</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <f>Calcs!F4</f>
+        <v>660</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <f>Calcs!G4</f>
+        <v>1360</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <f>Calcs!H4</f>
+        <v>1360</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <f>Calcs!I4</f>
+        <v>1360</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <f>Calcs!J4</f>
+        <v>1360</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <f>Calcs!K4</f>
+        <v>1360</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1208,7 +4190,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1217,23 +4199,26 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <f>Calcs!$B5/5</f>
-        <v>1364.5</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+      <c r="F5" s="45">
+        <f>Calcs!C5</f>
+        <v>1518.6100000000006</v>
+      </c>
+      <c r="G5" s="45">
+        <f>Calcs!D5</f>
+        <v>1518.6100000000006</v>
+      </c>
+      <c r="H5" s="45">
+        <f>Calcs!E5</f>
+        <v>1518.6100000000006</v>
+      </c>
+      <c r="I5" s="45">
+        <f>Calcs!F5</f>
+        <v>1518.609999999986</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1322,7 +4307,7 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1331,22 +4316,26 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1762</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0</v>
+      </c>
+      <c r="F6" s="24">
+        <f>Calcs!C6</f>
+        <v>2367.0299999999988</v>
+      </c>
+      <c r="G6" s="24">
+        <f>Calcs!D6</f>
+        <v>3498.2733333333308</v>
+      </c>
+      <c r="H6" s="24">
+        <f>Calcs!E6</f>
+        <v>3498.2733333333308</v>
+      </c>
+      <c r="I6" s="24">
+        <f>Calcs!F6</f>
+        <v>3498.2733333333308</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1435,7 +4424,7 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1444,22 +4433,26 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8634</v>
-      </c>
-      <c r="E7">
-        <v>7500</v>
-      </c>
-      <c r="F7">
-        <v>10000</v>
-      </c>
-      <c r="G7">
-        <v>10000</v>
-      </c>
-      <c r="H7">
-        <v>10000</v>
-      </c>
-      <c r="I7">
-        <v>10000</v>
+        <v>0</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0</v>
+      </c>
+      <c r="F7" s="24">
+        <f>Calcs!C7</f>
+        <v>8518.2999999999993</v>
+      </c>
+      <c r="G7" s="24">
+        <f>Calcs!D7</f>
+        <v>15423.146666666667</v>
+      </c>
+      <c r="H7" s="24">
+        <f>Calcs!E7</f>
+        <v>15423.146666666667</v>
+      </c>
+      <c r="I7" s="24">
+        <f>Calcs!F7</f>
+        <v>15423.146666666667</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1548,7 +4541,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1661,7 +4654,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1675,17 +4668,21 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+      <c r="F9" s="45">
+        <f>Calcs!C9</f>
+        <v>785.80999999999949</v>
+      </c>
+      <c r="G9" s="45">
+        <f>Calcs!D9</f>
+        <v>785.81000000011227</v>
+      </c>
+      <c r="H9" s="45">
+        <f>Calcs!E9</f>
+        <v>785.81000000005588</v>
+      </c>
+      <c r="I9" s="45">
+        <f>Calcs!F9</f>
+        <v>785.80999999982305</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1774,7 +4771,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1887,7 +4884,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2000,7 +4997,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2113,7 +5110,7 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2226,7 +5223,7 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2334,6 +5331,449 @@
         <v>0</v>
       </c>
       <c r="AK14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f>B15</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:AK15" si="0">C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f>B16</f>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:AK16" si="1">C16</f>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f>B17</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:AK17" si="2">C17</f>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="45">
+        <f>Calcs!C17</f>
+        <v>1.5</v>
+      </c>
+      <c r="G17" s="45">
+        <f>Calcs!D17</f>
+        <v>1.5000000000001705</v>
+      </c>
+      <c r="H17" s="45">
+        <f>Calcs!E17</f>
+        <v>1.5</v>
+      </c>
+      <c r="I17" s="45">
+        <f>Calcs!F17</f>
+        <v>1.5</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>

--- a/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
+++ b/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\elec\BPMCCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\elec\BPMCCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E84351-C845-4CC3-B130-770F238F99E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Calcs" sheetId="3" r:id="rId4"/>
     <sheet name="BPMCCS" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,12 +31,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Deepthi Swamy</author>
   </authors>
   <commentList>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{58B7D590-D00E-4396-9EBD-5B84BFF48E94}">
+    <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,26 +66,44 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={A1EF28D1-9FBF-4412-8119-632B82C52746}</author>
     <author>tc={04199A82-E924-4B1D-8DF3-98C0B7CAC9B8}</author>
   </authors>
   <commentList>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{A1EF28D1-9FBF-4412-8119-632B82C52746}">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     http://cea.nic.in/reports/monthly/installedcapacity/2018/installed_capacity-12.pdf</t>
+        </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="1" shapeId="0" xr:uid="{04199A82-E924-4B1D-8DF3-98C0B7CAC9B8}">
+    <comment ref="I5" authorId="1" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     http://cea.nic.in/reports/monthly/installedcapacity/2019/installed_capacity-12.pdf</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -643,9 +660,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1210,20 +1227,6 @@
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
@@ -1248,19 +1251,7 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1313,13 +1304,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1335,6 +1319,39 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1435,23 +1452,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1487,23 +1487,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1690,25 +1673,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A71" sqref="A71:A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="67.140625" customWidth="1"/>
-    <col min="4" max="4" width="59.7109375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+    <col min="4" max="4" width="59.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1719,17 +1702,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="81" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>22</v>
@@ -1738,15 +1721,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="94">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="82">
         <v>2018</v>
       </c>
-      <c r="D6" s="94">
+      <c r="D6" s="82">
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
@@ -1754,7 +1737,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -1762,7 +1745,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
@@ -1770,15 +1753,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="93" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="93" t="s">
+      <c r="D11" s="81" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1786,15 +1769,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="94">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="82">
         <v>2018</v>
       </c>
-      <c r="D13" s="94">
+      <c r="D13" s="82">
         <v>2015</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
         <v>23</v>
@@ -1803,7 +1786,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>40</v>
@@ -1812,10 +1795,10 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>122</v>
@@ -1824,16 +1807,16 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="93" t="s">
+      <c r="D18" s="81" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
         <v>123</v>
@@ -1842,16 +1825,16 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="94">
+      <c r="D20" s="82">
         <v>2015</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="B21" s="4" t="s">
         <v>125</v>
@@ -1860,7 +1843,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" t="s">
         <v>93</v>
@@ -1869,10 +1852,10 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
         <v>126</v>
@@ -1881,16 +1864,16 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="93" t="s">
+      <c r="D25" s="81" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
       <c r="B26" t="s">
         <v>128</v>
@@ -1899,16 +1882,16 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
-      <c r="B27" s="94">
+      <c r="B27" s="82">
         <v>2019</v>
       </c>
-      <c r="D27" s="94">
+      <c r="D27" s="82">
         <v>2020</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
       <c r="B28" s="4" t="s">
         <v>129</v>
@@ -1917,273 +1900,273 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="B29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="81" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
       <c r="B33" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="2"/>
-      <c r="B34" s="94">
+      <c r="B34" s="82">
         <v>2019</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="2"/>
       <c r="B35" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" s="2"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" s="2"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="53">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="45">
         <v>0.8</v>
       </c>
       <c r="B69" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="108"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" s="93"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" s="2"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" s="31" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
         <v>155</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B14" r:id="rId2" xr:uid="{CDD076DF-E58C-4E4E-B8F8-AA26FC0B259A}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -2191,28 +2174,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459ACE60-3B16-4977-AF8F-C978646F36FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.265625" customWidth="1"/>
+    <col min="6" max="6" width="10.73046875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="25.3984375" customWidth="1"/>
+    <col min="11" max="11" width="19.86328125" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="32" t="s">
         <v>41</v>
       </c>
@@ -2239,17 +2222,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="6"/>
       <c r="H2" s="8" t="s">
         <v>32</v>
@@ -2268,8 +2251,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+    <row r="3" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="96"/>
       <c r="B3" s="29" t="s">
         <v>43</v>
       </c>
@@ -2303,7 +2286,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="25" t="s">
         <v>28</v>
       </c>
@@ -2340,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="25" t="s">
         <v>27</v>
       </c>
@@ -2377,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="25" t="s">
         <v>26</v>
       </c>
@@ -2404,13 +2387,13 @@
         <v>266827</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="97" t="s">
+      <c r="K6" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="25" t="s">
         <v>49</v>
       </c>
@@ -2438,7 +2421,7 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -2457,7 +2440,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
@@ -2473,12 +2456,12 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="97" t="s">
+    <row r="10" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
       <c r="H10" s="8" t="s">
         <v>26</v>
       </c>
@@ -2486,7 +2469,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H11" s="8" t="s">
         <v>25</v>
       </c>
@@ -2494,21 +2477,21 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="97" t="s">
+    <row r="12" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H12" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="98"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H13" s="43"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I12" s="99"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="H13" s="103"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="39.75" x14ac:dyDescent="0.45">
       <c r="A15" s="27"/>
       <c r="B15" s="30" t="s">
         <v>60</v>
@@ -2529,7 +2512,7 @@
       <c r="L15" s="33"/>
       <c r="M15" s="33"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="27" t="s">
         <v>17</v>
       </c>
@@ -2552,7 +2535,7 @@
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="27" t="s">
         <v>52</v>
       </c>
@@ -2562,14 +2545,14 @@
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H17" s="100"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="27" t="s">
         <v>29</v>
       </c>
@@ -2585,14 +2568,14 @@
         <f>I5-C18</f>
         <v>-993.15000000000146</v>
       </c>
-      <c r="H18" s="41"/>
+      <c r="H18" s="101"/>
       <c r="I18" s="34"/>
       <c r="J18" s="34"/>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="27" t="s">
         <v>53</v>
       </c>
@@ -2609,7 +2592,7 @@
       <c r="L19" s="35"/>
       <c r="M19" s="35"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="27" t="s">
         <v>18</v>
       </c>
@@ -2635,7 +2618,7 @@
       <c r="L20" s="35"/>
       <c r="M20" s="35"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="27" t="s">
         <v>54</v>
       </c>
@@ -2658,7 +2641,7 @@
       <c r="L21" s="35"/>
       <c r="M21" s="35"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="27" t="s">
         <v>55</v>
       </c>
@@ -2681,7 +2664,7 @@
       <c r="L22" s="35"/>
       <c r="M22" s="35"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="27" t="s">
         <v>56</v>
       </c>
@@ -2704,7 +2687,7 @@
       <c r="L23" s="11"/>
       <c r="M23" s="36"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="27" t="s">
         <v>26</v>
       </c>
@@ -2728,7 +2711,7 @@
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="27" t="s">
         <v>57</v>
       </c>
@@ -2762,85 +2745,85 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AEF7C4-F01C-45D7-965E-399B945C4ED1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
-    <col min="7" max="7" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.86328125" customWidth="1"/>
+    <col min="5" max="5" width="20.265625" customWidth="1"/>
+    <col min="6" max="6" width="8.265625" customWidth="1"/>
+    <col min="7" max="7" width="34.265625" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.1328125" customWidth="1"/>
+    <col min="17" max="17" width="13.1328125" customWidth="1"/>
+    <col min="19" max="19" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A1" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="101"/>
-      <c r="E1" s="103" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="E1" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="I1" s="103" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="I1" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-    </row>
-    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+    </row>
+    <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="59">
+      <c r="B2" s="51">
         <v>175</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="84" t="s">
         <v>96</v>
       </c>
       <c r="D2" s="33"/>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="56">
+      <c r="F2" s="48">
         <f>About!A69*'RE target adjustment'!B2*1000</f>
         <v>140000</v>
       </c>
-      <c r="G2" s="95" t="s">
+      <c r="G2" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="67" t="s">
+      <c r="J2" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="69"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="107"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="25" t="s">
         <v>95</v>
       </c>
       <c r="B3" s="13">
         <v>100</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="46">
         <f>B3/175</f>
         <v>0.5714285714285714</v>
       </c>
@@ -2848,44 +2831,44 @@
       <c r="E3" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="49">
         <f>C3*$F$2</f>
         <v>80000</v>
       </c>
-      <c r="G3" s="60">
+      <c r="G3" s="52">
         <f>F3-C12</f>
         <v>46269.440000000002</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="71" t="s">
+      <c r="K3" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="L3" s="71" t="s">
+      <c r="L3" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="71" t="s">
+      <c r="M3" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="71" t="s">
+      <c r="N3" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="O3" s="72" t="s">
+      <c r="O3" s="60" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" s="25" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="13">
         <v>60</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="46">
         <f>B4/175</f>
         <v>0.34285714285714286</v>
       </c>
@@ -2893,18 +2876,18 @@
       <c r="E4" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="58">
+      <c r="F4" s="50">
         <f>C4*$F$2</f>
         <v>48000</v>
       </c>
-      <c r="G4" s="60">
+      <c r="G4" s="52">
         <f>F4-C13</f>
         <v>10494.82</v>
       </c>
       <c r="I4" s="13">
         <v>2018</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J4" s="38">
         <v>45399.22</v>
       </c>
       <c r="K4" s="33">
@@ -2919,18 +2902,18 @@
       <c r="N4" s="33">
         <v>138.30000000000001</v>
       </c>
-      <c r="O4" s="47">
+      <c r="O4" s="39">
         <v>25212.26</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="44">
         <v>5</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="46">
         <f>B5/175</f>
         <v>2.8571428571428571E-2</v>
       </c>
@@ -2938,41 +2921,41 @@
       <c r="E5" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="58">
+      <c r="F5" s="50">
         <f>B5*1000</f>
         <v>5000</v>
       </c>
-      <c r="G5" s="62"/>
+      <c r="G5" s="54"/>
       <c r="I5" s="13">
         <v>2019</v>
       </c>
-      <c r="J5" s="48">
+      <c r="J5" s="40">
         <v>45399.22</v>
       </c>
-      <c r="K5" s="49">
+      <c r="K5" s="41">
         <v>4671.5600000000004</v>
       </c>
-      <c r="L5" s="49">
+      <c r="L5" s="41">
         <v>37505.18</v>
       </c>
-      <c r="M5" s="49">
+      <c r="M5" s="41">
         <v>9861.31</v>
       </c>
-      <c r="N5" s="49">
+      <c r="N5" s="41">
         <v>139.80000000000001</v>
       </c>
-      <c r="O5" s="50">
+      <c r="O5" s="42">
         <v>33730.559999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B6" s="44">
         <v>10</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="46">
         <f>B6/175</f>
         <v>5.7142857142857141E-2</v>
       </c>
@@ -2980,65 +2963,65 @@
       <c r="E6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="59">
+      <c r="F6" s="51">
         <f>B6*1000</f>
         <v>10000</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="I6" s="73" t="s">
+      <c r="G6" s="55"/>
+      <c r="I6" s="61" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A7" s="61" t="s">
         <v>109</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="61" t="s">
         <v>112</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A8" s="61"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="73"/>
+      <c r="G8" s="61"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="105" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A9" s="90" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="107"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="92"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A10" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
-      <c r="R10" s="45"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="R10" s="37"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A11" s="96"/>
       <c r="B11" s="29">
         <v>2018</v>
       </c>
@@ -3057,57 +3040,57 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="51">
+      <c r="B12" s="43">
         <f>O4</f>
         <v>25212.26</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="43">
         <f>O5</f>
         <v>33730.559999999998</v>
       </c>
-      <c r="D12" s="74">
+      <c r="D12" s="62">
         <f>C12+$G$3/3</f>
         <v>49153.706666666665</v>
       </c>
-      <c r="E12" s="74">
+      <c r="E12" s="62">
         <f>D12+$G$3/3</f>
         <v>64576.853333333333</v>
       </c>
-      <c r="F12" s="75">
+      <c r="F12" s="63">
         <f>E12+$G$3/3</f>
         <v>80000</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="64"/>
+      <c r="H12" s="56"/>
       <c r="I12" s="33"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="51">
+      <c r="B13" s="43">
         <f>L4</f>
         <v>35138.15</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="43">
         <f>L5</f>
         <v>37505.18</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="64">
         <f>C13+$G$4/3</f>
         <v>41003.453333333331</v>
       </c>
-      <c r="E13" s="76">
+      <c r="E13" s="64">
         <f>D13+$G$4/3</f>
         <v>44501.726666666662</v>
       </c>
-      <c r="F13" s="77">
+      <c r="F13" s="65">
         <f>E13+$G$4/3</f>
         <v>47999.999999999993</v>
       </c>
@@ -3115,27 +3098,27 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="51">
+      <c r="B14" s="43">
         <f>M4</f>
         <v>9075.5</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="43">
         <f>M5</f>
         <v>9861.31</v>
       </c>
-      <c r="D14" s="76">
+      <c r="D14" s="64">
         <f>TREND($B$14:$C$14,$B$11:$C$11,D11)</f>
         <v>10647.120000000112</v>
       </c>
-      <c r="E14" s="76">
+      <c r="E14" s="64">
         <f>TREND($B$14:$C$14,$B$11:$C$11,E11)</f>
         <v>11432.930000000168</v>
       </c>
-      <c r="F14" s="77">
+      <c r="F14" s="65">
         <f>TREND($B$14:$C$14,$B$11:$C$11,F11)</f>
         <v>12218.739999999991</v>
       </c>
@@ -3143,27 +3126,27 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="51">
+      <c r="B15" s="43">
         <f>K4</f>
         <v>4517.45</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="43">
         <f>K5</f>
         <v>4671.5600000000004</v>
       </c>
-      <c r="D15" s="76">
+      <c r="D15" s="64">
         <f>TREND($B$15:$C$15,$B$11:$C$11,D11)</f>
         <v>4825.6699999999837</v>
       </c>
-      <c r="E15" s="76">
+      <c r="E15" s="64">
         <f>TREND($B$15:$C$15,$B$11:$C$11,E11)</f>
         <v>4979.7799999999697</v>
       </c>
-      <c r="F15" s="77">
+      <c r="F15" s="65">
         <f>TREND($B$15:$C$15,$B$11:$C$11,F11)</f>
         <v>5133.8899999999558</v>
       </c>
@@ -3171,27 +3154,27 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="43">
         <f>N4</f>
         <v>138.30000000000001</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="43">
         <f>N5</f>
         <v>139.80000000000001</v>
       </c>
-      <c r="D16" s="78">
+      <c r="D16" s="66">
         <f>TREND($B$16:$C$16,$B$11:$C$11,D11)</f>
         <v>141.30000000000018</v>
       </c>
-      <c r="E16" s="78">
+      <c r="E16" s="66">
         <f>TREND($B$16:$C$16,$B$11:$C$11,E11)</f>
         <v>142.80000000000018</v>
       </c>
-      <c r="F16" s="79">
+      <c r="F16" s="67">
         <f>TREND($B$16:$C$16,$B$11:$C$11,F11)</f>
         <v>144.30000000000018</v>
       </c>
@@ -3199,49 +3182,49 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="103" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A18" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="104"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A19" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="109"/>
       <c r="L19" s="33"/>
       <c r="M19" s="33"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="81">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A20" s="96"/>
+      <c r="B20" s="69">
         <v>2018</v>
       </c>
-      <c r="C20" s="81">
+      <c r="C20" s="69">
         <v>2019</v>
       </c>
-      <c r="D20" s="81">
+      <c r="D20" s="69">
         <v>2020</v>
       </c>
-      <c r="E20" s="81">
+      <c r="E20" s="69">
         <v>2021</v>
       </c>
-      <c r="F20" s="85">
+      <c r="F20" s="73">
         <v>2022</v>
       </c>
       <c r="H20" s="33"/>
@@ -3251,24 +3234,24 @@
       <c r="L20" s="33"/>
       <c r="M20" s="33"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="80" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A21" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="86">
+      <c r="B21" s="70"/>
+      <c r="C21" s="74">
         <f>C12-B12</f>
         <v>8518.2999999999993</v>
       </c>
-      <c r="D21" s="86">
+      <c r="D21" s="74">
         <f>D12-C12</f>
         <v>15423.146666666667</v>
       </c>
-      <c r="E21" s="86">
+      <c r="E21" s="74">
         <f t="shared" ref="E21:F21" si="0">E12-D12</f>
         <v>15423.146666666667</v>
       </c>
-      <c r="F21" s="87">
+      <c r="F21" s="75">
         <f t="shared" si="0"/>
         <v>15423.146666666667</v>
       </c>
@@ -3279,52 +3262,52 @@
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="80" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A22" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="83"/>
-      <c r="C22" s="88">
+      <c r="B22" s="71"/>
+      <c r="C22" s="76">
         <f>C13-B13</f>
         <v>2367.0299999999988</v>
       </c>
-      <c r="D22" s="88">
+      <c r="D22" s="76">
         <f t="shared" ref="D22:F25" si="1">D13-C13</f>
         <v>3498.2733333333308</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="76">
         <f t="shared" si="1"/>
         <v>3498.2733333333308</v>
       </c>
-      <c r="F22" s="89">
+      <c r="F22" s="77">
         <f t="shared" si="1"/>
         <v>3498.2733333333308</v>
       </c>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="33"/>
       <c r="M22" s="33"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="80" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A23" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="83"/>
-      <c r="C23" s="88">
+      <c r="B23" s="71"/>
+      <c r="C23" s="76">
         <f>C14-B14</f>
         <v>785.80999999999949</v>
       </c>
-      <c r="D23" s="88">
+      <c r="D23" s="76">
         <f t="shared" si="1"/>
         <v>785.81000000011227</v>
       </c>
-      <c r="E23" s="88">
+      <c r="E23" s="76">
         <f t="shared" si="1"/>
         <v>785.81000000005588</v>
       </c>
-      <c r="F23" s="89">
+      <c r="F23" s="77">
         <f t="shared" si="1"/>
         <v>785.80999999982305</v>
       </c>
@@ -3335,46 +3318,46 @@
       <c r="L23" s="33"/>
       <c r="M23" s="33"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A24" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="83"/>
-      <c r="C24" s="88">
+      <c r="B24" s="71"/>
+      <c r="C24" s="76">
         <f t="shared" ref="C24:C25" si="2">C15-B15</f>
         <v>154.11000000000058</v>
       </c>
-      <c r="D24" s="88">
+      <c r="D24" s="76">
         <f t="shared" si="1"/>
         <v>154.1099999999833</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="76">
         <f t="shared" si="1"/>
         <v>154.10999999998603</v>
       </c>
-      <c r="F24" s="89">
+      <c r="F24" s="77">
         <f t="shared" si="1"/>
         <v>154.10999999998603</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="80" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A25" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="84"/>
-      <c r="C25" s="90">
+      <c r="B25" s="72"/>
+      <c r="C25" s="78">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D25" s="78">
         <f t="shared" si="1"/>
         <v>1.5000000000001705</v>
       </c>
-      <c r="E25" s="90">
+      <c r="E25" s="78">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="F25" s="91">
+      <c r="F25" s="79">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
@@ -3395,21 +3378,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3449,7 +3432,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3473,31 +3456,31 @@
         <v>9571</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="37">
         <f>'MNRE+CEA'!L4/5</f>
         <v>81.22999999999999</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="37">
         <f t="shared" ref="D3:F3" si="2">C3</f>
         <v>81.22999999999999</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="37">
         <f t="shared" si="2"/>
         <v>81.22999999999999</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="37">
         <f t="shared" si="2"/>
         <v>81.22999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3541,32 +3524,32 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="37">
         <f>'MNRE+CEA'!L5/5+'RE target adjustment'!C24</f>
         <v>1518.6100000000006</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="37">
         <f t="shared" ref="D5:E5" si="5">C5</f>
         <v>1518.6100000000006</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="37">
         <f t="shared" si="5"/>
         <v>1518.6100000000006</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="37">
         <f>'MNRE+CEA'!L5/5+'RE target adjustment'!F24</f>
         <v>1518.609999999986</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="109" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="94" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="24">
@@ -3589,8 +3572,8 @@
         <v>3498.2733333333308</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="109" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="94" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="24">
@@ -3613,87 +3596,87 @@
         <v>15423.146666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="109" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="94" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="109" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="94" t="s">
         <v>6</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="37">
         <f>'RE target adjustment'!C23</f>
         <v>785.80999999999949</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="37">
         <f>'RE target adjustment'!D23</f>
         <v>785.81000000011227</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="37">
         <f>'RE target adjustment'!E23</f>
         <v>785.81000000005588</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="37">
         <f>'RE target adjustment'!F23</f>
         <v>785.80999999982305</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="109" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="37">
         <f>'RE target adjustment'!C25</f>
         <v>1.5</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="37">
         <f>'RE target adjustment'!D25</f>
         <v>1.5000000000001705</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="37">
         <f>'RE target adjustment'!E25</f>
         <v>1.5</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="37">
         <f>'RE target adjustment'!F25</f>
         <v>1.5</v>
       </c>
@@ -3704,22 +3687,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="B2" sqref="B2:AK17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -3832,1947 +3815,1947 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>64</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="B2" s="37">
+        <v>0</v>
+      </c>
+      <c r="C2" s="37">
+        <v>0</v>
+      </c>
+      <c r="D2" s="37">
+        <v>0</v>
+      </c>
+      <c r="E2" s="37">
+        <v>0</v>
+      </c>
+      <c r="F2" s="37">
         <f>Calcs!C2</f>
         <v>9571</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="37">
         <f>Calcs!D2</f>
         <v>9571</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="37">
         <f>Calcs!E2</f>
         <v>9571</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="37">
         <f>Calcs!F2</f>
         <v>9571</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="J2" s="37">
+        <v>0</v>
+      </c>
+      <c r="K2" s="37">
+        <v>0</v>
+      </c>
+      <c r="L2" s="37">
+        <v>0</v>
+      </c>
+      <c r="M2" s="37">
+        <v>0</v>
+      </c>
+      <c r="N2" s="37">
+        <v>0</v>
+      </c>
+      <c r="O2" s="37">
+        <v>0</v>
+      </c>
+      <c r="P2" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="37">
+        <v>0</v>
+      </c>
+      <c r="R2" s="37">
+        <v>0</v>
+      </c>
+      <c r="S2" s="37">
+        <v>0</v>
+      </c>
+      <c r="T2" s="37">
+        <v>0</v>
+      </c>
+      <c r="U2" s="37">
+        <v>0</v>
+      </c>
+      <c r="V2" s="37">
+        <v>0</v>
+      </c>
+      <c r="W2" s="37">
+        <v>0</v>
+      </c>
+      <c r="X2" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="37">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>65</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="45">
+      <c r="B3" s="37">
+        <v>0</v>
+      </c>
+      <c r="C3" s="37">
+        <v>0</v>
+      </c>
+      <c r="D3" s="37">
+        <v>0</v>
+      </c>
+      <c r="E3" s="37">
+        <v>0</v>
+      </c>
+      <c r="F3" s="37">
         <f>Calcs!C3</f>
         <v>81.22999999999999</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="37">
         <f>Calcs!D3</f>
         <v>81.22999999999999</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="37">
         <f>Calcs!E3</f>
         <v>81.22999999999999</v>
       </c>
-      <c r="I3" s="45">
+      <c r="I3" s="37">
         <f>Calcs!F3</f>
         <v>81.22999999999999</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="J3" s="37">
+        <v>0</v>
+      </c>
+      <c r="K3" s="37">
+        <v>0</v>
+      </c>
+      <c r="L3" s="37">
+        <v>0</v>
+      </c>
+      <c r="M3" s="37">
+        <v>0</v>
+      </c>
+      <c r="N3" s="37">
+        <v>0</v>
+      </c>
+      <c r="O3" s="37">
+        <v>0</v>
+      </c>
+      <c r="P3" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="37">
+        <v>0</v>
+      </c>
+      <c r="R3" s="37">
+        <v>0</v>
+      </c>
+      <c r="S3" s="37">
+        <v>0</v>
+      </c>
+      <c r="T3" s="37">
+        <v>0</v>
+      </c>
+      <c r="U3" s="37">
+        <v>0</v>
+      </c>
+      <c r="V3" s="37">
+        <v>0</v>
+      </c>
+      <c r="W3" s="37">
+        <v>0</v>
+      </c>
+      <c r="X3" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="37">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>66</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="B4" s="37">
+        <v>0</v>
+      </c>
+      <c r="C4" s="37">
+        <v>0</v>
+      </c>
+      <c r="D4" s="37">
+        <v>0</v>
+      </c>
+      <c r="E4" s="37">
+        <v>0</v>
+      </c>
+      <c r="F4" s="37">
         <f>Calcs!C4</f>
         <v>660</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="37">
         <f>Calcs!D4</f>
         <v>660</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="37">
         <f>Calcs!E4</f>
         <v>660</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="37">
         <f>Calcs!F4</f>
         <v>660</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="37">
         <f>Calcs!G4</f>
         <v>1360</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="37">
         <f>Calcs!H4</f>
         <v>1360</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="37">
         <f>Calcs!I4</f>
         <v>1360</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="37">
         <f>Calcs!J4</f>
         <v>1360</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="37">
         <f>Calcs!K4</f>
         <v>1360</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="O4" s="37">
+        <v>0</v>
+      </c>
+      <c r="P4" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="37">
+        <v>0</v>
+      </c>
+      <c r="R4" s="37">
+        <v>0</v>
+      </c>
+      <c r="S4" s="37">
+        <v>0</v>
+      </c>
+      <c r="T4" s="37">
+        <v>0</v>
+      </c>
+      <c r="U4" s="37">
+        <v>0</v>
+      </c>
+      <c r="V4" s="37">
+        <v>0</v>
+      </c>
+      <c r="W4" s="37">
+        <v>0</v>
+      </c>
+      <c r="X4" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="37">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="45">
+      <c r="B5" s="37">
+        <v>0</v>
+      </c>
+      <c r="C5" s="37">
+        <v>0</v>
+      </c>
+      <c r="D5" s="37">
+        <v>0</v>
+      </c>
+      <c r="E5" s="37">
+        <v>0</v>
+      </c>
+      <c r="F5" s="37">
         <f>Calcs!C5</f>
         <v>1518.6100000000006</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="37">
         <f>Calcs!D5</f>
         <v>1518.6100000000006</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="37">
         <f>Calcs!E5</f>
         <v>1518.6100000000006</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="37">
         <f>Calcs!F5</f>
         <v>1518.609999999986</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="J5" s="37">
+        <v>0</v>
+      </c>
+      <c r="K5" s="37">
+        <v>0</v>
+      </c>
+      <c r="L5" s="37">
+        <v>0</v>
+      </c>
+      <c r="M5" s="37">
+        <v>0</v>
+      </c>
+      <c r="N5" s="37">
+        <v>0</v>
+      </c>
+      <c r="O5" s="37">
+        <v>0</v>
+      </c>
+      <c r="P5" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="37">
+        <v>0</v>
+      </c>
+      <c r="R5" s="37">
+        <v>0</v>
+      </c>
+      <c r="S5" s="37">
+        <v>0</v>
+      </c>
+      <c r="T5" s="37">
+        <v>0</v>
+      </c>
+      <c r="U5" s="37">
+        <v>0</v>
+      </c>
+      <c r="V5" s="37">
+        <v>0</v>
+      </c>
+      <c r="W5" s="37">
+        <v>0</v>
+      </c>
+      <c r="X5" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="37">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>67</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="24">
-        <v>0</v>
-      </c>
-      <c r="F6" s="24">
+      <c r="B6" s="37">
+        <v>0</v>
+      </c>
+      <c r="C6" s="37">
+        <v>0</v>
+      </c>
+      <c r="D6" s="37">
+        <v>0</v>
+      </c>
+      <c r="E6" s="37">
+        <v>0</v>
+      </c>
+      <c r="F6" s="37">
         <f>Calcs!C6</f>
         <v>2367.0299999999988</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="37">
         <f>Calcs!D6</f>
         <v>3498.2733333333308</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="37">
         <f>Calcs!E6</f>
         <v>3498.2733333333308</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="37">
         <f>Calcs!F6</f>
         <v>3498.2733333333308</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="J6" s="37">
+        <v>0</v>
+      </c>
+      <c r="K6" s="37">
+        <v>0</v>
+      </c>
+      <c r="L6" s="37">
+        <v>0</v>
+      </c>
+      <c r="M6" s="37">
+        <v>0</v>
+      </c>
+      <c r="N6" s="37">
+        <v>0</v>
+      </c>
+      <c r="O6" s="37">
+        <v>0</v>
+      </c>
+      <c r="P6" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="37">
+        <v>0</v>
+      </c>
+      <c r="R6" s="37">
+        <v>0</v>
+      </c>
+      <c r="S6" s="37">
+        <v>0</v>
+      </c>
+      <c r="T6" s="37">
+        <v>0</v>
+      </c>
+      <c r="U6" s="37">
+        <v>0</v>
+      </c>
+      <c r="V6" s="37">
+        <v>0</v>
+      </c>
+      <c r="W6" s="37">
+        <v>0</v>
+      </c>
+      <c r="X6" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="37">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>68</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="24">
-        <v>0</v>
-      </c>
-      <c r="F7" s="24">
+      <c r="B7" s="37">
+        <v>0</v>
+      </c>
+      <c r="C7" s="37">
+        <v>0</v>
+      </c>
+      <c r="D7" s="37">
+        <v>0</v>
+      </c>
+      <c r="E7" s="37">
+        <v>0</v>
+      </c>
+      <c r="F7" s="37">
         <f>Calcs!C7</f>
         <v>8518.2999999999993</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="37">
         <f>Calcs!D7</f>
         <v>15423.146666666667</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="37">
         <f>Calcs!E7</f>
         <v>15423.146666666667</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="37">
         <f>Calcs!F7</f>
         <v>15423.146666666667</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="J7" s="37">
+        <v>0</v>
+      </c>
+      <c r="K7" s="37">
+        <v>0</v>
+      </c>
+      <c r="L7" s="37">
+        <v>0</v>
+      </c>
+      <c r="M7" s="37">
+        <v>0</v>
+      </c>
+      <c r="N7" s="37">
+        <v>0</v>
+      </c>
+      <c r="O7" s="37">
+        <v>0</v>
+      </c>
+      <c r="P7" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="37">
+        <v>0</v>
+      </c>
+      <c r="R7" s="37">
+        <v>0</v>
+      </c>
+      <c r="S7" s="37">
+        <v>0</v>
+      </c>
+      <c r="T7" s="37">
+        <v>0</v>
+      </c>
+      <c r="U7" s="37">
+        <v>0</v>
+      </c>
+      <c r="V7" s="37">
+        <v>0</v>
+      </c>
+      <c r="W7" s="37">
+        <v>0</v>
+      </c>
+      <c r="X7" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="37">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="37">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="37">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="37">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="37">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="37">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="37">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="37">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="37">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>69</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B8" s="37">
+        <v>0</v>
+      </c>
+      <c r="C8" s="37">
+        <v>0</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0</v>
+      </c>
+      <c r="E8" s="37">
+        <v>0</v>
+      </c>
+      <c r="F8" s="37">
+        <v>0</v>
+      </c>
+      <c r="G8" s="37">
+        <v>0</v>
+      </c>
+      <c r="H8" s="37">
+        <v>0</v>
+      </c>
+      <c r="I8" s="37">
+        <v>0</v>
+      </c>
+      <c r="J8" s="37">
+        <v>0</v>
+      </c>
+      <c r="K8" s="37">
+        <v>0</v>
+      </c>
+      <c r="L8" s="37">
+        <v>0</v>
+      </c>
+      <c r="M8" s="37">
+        <v>0</v>
+      </c>
+      <c r="N8" s="37">
+        <v>0</v>
+      </c>
+      <c r="O8" s="37">
+        <v>0</v>
+      </c>
+      <c r="P8" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="37">
+        <v>0</v>
+      </c>
+      <c r="R8" s="37">
+        <v>0</v>
+      </c>
+      <c r="S8" s="37">
+        <v>0</v>
+      </c>
+      <c r="T8" s="37">
+        <v>0</v>
+      </c>
+      <c r="U8" s="37">
+        <v>0</v>
+      </c>
+      <c r="V8" s="37">
+        <v>0</v>
+      </c>
+      <c r="W8" s="37">
+        <v>0</v>
+      </c>
+      <c r="X8" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="37">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="37">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="37">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="37">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="37">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="37">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="37">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="37">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="37">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>70</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="45">
+      <c r="B9" s="37">
+        <v>0</v>
+      </c>
+      <c r="C9" s="37">
+        <v>0</v>
+      </c>
+      <c r="D9" s="37">
+        <v>0</v>
+      </c>
+      <c r="E9" s="37">
+        <v>0</v>
+      </c>
+      <c r="F9" s="37">
         <f>Calcs!C9</f>
         <v>785.80999999999949</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="37">
         <f>Calcs!D9</f>
         <v>785.81000000011227</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="37">
         <f>Calcs!E9</f>
         <v>785.81000000005588</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="37">
         <f>Calcs!F9</f>
         <v>785.80999999982305</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="J9" s="37">
+        <v>0</v>
+      </c>
+      <c r="K9" s="37">
+        <v>0</v>
+      </c>
+      <c r="L9" s="37">
+        <v>0</v>
+      </c>
+      <c r="M9" s="37">
+        <v>0</v>
+      </c>
+      <c r="N9" s="37">
+        <v>0</v>
+      </c>
+      <c r="O9" s="37">
+        <v>0</v>
+      </c>
+      <c r="P9" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="37">
+        <v>0</v>
+      </c>
+      <c r="R9" s="37">
+        <v>0</v>
+      </c>
+      <c r="S9" s="37">
+        <v>0</v>
+      </c>
+      <c r="T9" s="37">
+        <v>0</v>
+      </c>
+      <c r="U9" s="37">
+        <v>0</v>
+      </c>
+      <c r="V9" s="37">
+        <v>0</v>
+      </c>
+      <c r="W9" s="37">
+        <v>0</v>
+      </c>
+      <c r="X9" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="37">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="37">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="37">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="37">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="37">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="37">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="37">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="37">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="37">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>71</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B10" s="37">
+        <v>0</v>
+      </c>
+      <c r="C10" s="37">
+        <v>0</v>
+      </c>
+      <c r="D10" s="37">
+        <v>0</v>
+      </c>
+      <c r="E10" s="37">
+        <v>0</v>
+      </c>
+      <c r="F10" s="37">
+        <v>0</v>
+      </c>
+      <c r="G10" s="37">
+        <v>0</v>
+      </c>
+      <c r="H10" s="37">
+        <v>0</v>
+      </c>
+      <c r="I10" s="37">
+        <v>0</v>
+      </c>
+      <c r="J10" s="37">
+        <v>0</v>
+      </c>
+      <c r="K10" s="37">
+        <v>0</v>
+      </c>
+      <c r="L10" s="37">
+        <v>0</v>
+      </c>
+      <c r="M10" s="37">
+        <v>0</v>
+      </c>
+      <c r="N10" s="37">
+        <v>0</v>
+      </c>
+      <c r="O10" s="37">
+        <v>0</v>
+      </c>
+      <c r="P10" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="37">
+        <v>0</v>
+      </c>
+      <c r="R10" s="37">
+        <v>0</v>
+      </c>
+      <c r="S10" s="37">
+        <v>0</v>
+      </c>
+      <c r="T10" s="37">
+        <v>0</v>
+      </c>
+      <c r="U10" s="37">
+        <v>0</v>
+      </c>
+      <c r="V10" s="37">
+        <v>0</v>
+      </c>
+      <c r="W10" s="37">
+        <v>0</v>
+      </c>
+      <c r="X10" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="37">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="37">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="37">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="37">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="37">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="37">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="37">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="37">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="37">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>72</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B11" s="37">
+        <v>0</v>
+      </c>
+      <c r="C11" s="37">
+        <v>0</v>
+      </c>
+      <c r="D11" s="37">
+        <v>0</v>
+      </c>
+      <c r="E11" s="37">
+        <v>0</v>
+      </c>
+      <c r="F11" s="37">
+        <v>0</v>
+      </c>
+      <c r="G11" s="37">
+        <v>0</v>
+      </c>
+      <c r="H11" s="37">
+        <v>0</v>
+      </c>
+      <c r="I11" s="37">
+        <v>0</v>
+      </c>
+      <c r="J11" s="37">
+        <v>0</v>
+      </c>
+      <c r="K11" s="37">
+        <v>0</v>
+      </c>
+      <c r="L11" s="37">
+        <v>0</v>
+      </c>
+      <c r="M11" s="37">
+        <v>0</v>
+      </c>
+      <c r="N11" s="37">
+        <v>0</v>
+      </c>
+      <c r="O11" s="37">
+        <v>0</v>
+      </c>
+      <c r="P11" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="37">
+        <v>0</v>
+      </c>
+      <c r="R11" s="37">
+        <v>0</v>
+      </c>
+      <c r="S11" s="37">
+        <v>0</v>
+      </c>
+      <c r="T11" s="37">
+        <v>0</v>
+      </c>
+      <c r="U11" s="37">
+        <v>0</v>
+      </c>
+      <c r="V11" s="37">
+        <v>0</v>
+      </c>
+      <c r="W11" s="37">
+        <v>0</v>
+      </c>
+      <c r="X11" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="37">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="37">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="37">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="37">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="37">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="37">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="37">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="37">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="37">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>73</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B12" s="37">
+        <v>0</v>
+      </c>
+      <c r="C12" s="37">
+        <v>0</v>
+      </c>
+      <c r="D12" s="37">
+        <v>0</v>
+      </c>
+      <c r="E12" s="37">
+        <v>0</v>
+      </c>
+      <c r="F12" s="37">
+        <v>0</v>
+      </c>
+      <c r="G12" s="37">
+        <v>0</v>
+      </c>
+      <c r="H12" s="37">
+        <v>0</v>
+      </c>
+      <c r="I12" s="37">
+        <v>0</v>
+      </c>
+      <c r="J12" s="37">
+        <v>0</v>
+      </c>
+      <c r="K12" s="37">
+        <v>0</v>
+      </c>
+      <c r="L12" s="37">
+        <v>0</v>
+      </c>
+      <c r="M12" s="37">
+        <v>0</v>
+      </c>
+      <c r="N12" s="37">
+        <v>0</v>
+      </c>
+      <c r="O12" s="37">
+        <v>0</v>
+      </c>
+      <c r="P12" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="37">
+        <v>0</v>
+      </c>
+      <c r="R12" s="37">
+        <v>0</v>
+      </c>
+      <c r="S12" s="37">
+        <v>0</v>
+      </c>
+      <c r="T12" s="37">
+        <v>0</v>
+      </c>
+      <c r="U12" s="37">
+        <v>0</v>
+      </c>
+      <c r="V12" s="37">
+        <v>0</v>
+      </c>
+      <c r="W12" s="37">
+        <v>0</v>
+      </c>
+      <c r="X12" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="37">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="37">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="37">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="37">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="37">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="37">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="37">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="37">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="37">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>74</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B13" s="37">
+        <v>0</v>
+      </c>
+      <c r="C13" s="37">
+        <v>0</v>
+      </c>
+      <c r="D13" s="37">
+        <v>0</v>
+      </c>
+      <c r="E13" s="37">
+        <v>0</v>
+      </c>
+      <c r="F13" s="37">
+        <v>0</v>
+      </c>
+      <c r="G13" s="37">
+        <v>0</v>
+      </c>
+      <c r="H13" s="37">
+        <v>0</v>
+      </c>
+      <c r="I13" s="37">
+        <v>0</v>
+      </c>
+      <c r="J13" s="37">
+        <v>0</v>
+      </c>
+      <c r="K13" s="37">
+        <v>0</v>
+      </c>
+      <c r="L13" s="37">
+        <v>0</v>
+      </c>
+      <c r="M13" s="37">
+        <v>0</v>
+      </c>
+      <c r="N13" s="37">
+        <v>0</v>
+      </c>
+      <c r="O13" s="37">
+        <v>0</v>
+      </c>
+      <c r="P13" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="37">
+        <v>0</v>
+      </c>
+      <c r="R13" s="37">
+        <v>0</v>
+      </c>
+      <c r="S13" s="37">
+        <v>0</v>
+      </c>
+      <c r="T13" s="37">
+        <v>0</v>
+      </c>
+      <c r="U13" s="37">
+        <v>0</v>
+      </c>
+      <c r="V13" s="37">
+        <v>0</v>
+      </c>
+      <c r="W13" s="37">
+        <v>0</v>
+      </c>
+      <c r="X13" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="37">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="37">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="37">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="37">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="37">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="37">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="37">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="37">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="37">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>75</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B14" s="37">
+        <v>0</v>
+      </c>
+      <c r="C14" s="37">
+        <v>0</v>
+      </c>
+      <c r="D14" s="37">
+        <v>0</v>
+      </c>
+      <c r="E14" s="37">
+        <v>0</v>
+      </c>
+      <c r="F14" s="37">
+        <v>0</v>
+      </c>
+      <c r="G14" s="37">
+        <v>0</v>
+      </c>
+      <c r="H14" s="37">
+        <v>0</v>
+      </c>
+      <c r="I14" s="37">
+        <v>0</v>
+      </c>
+      <c r="J14" s="37">
+        <v>0</v>
+      </c>
+      <c r="K14" s="37">
+        <v>0</v>
+      </c>
+      <c r="L14" s="37">
+        <v>0</v>
+      </c>
+      <c r="M14" s="37">
+        <v>0</v>
+      </c>
+      <c r="N14" s="37">
+        <v>0</v>
+      </c>
+      <c r="O14" s="37">
+        <v>0</v>
+      </c>
+      <c r="P14" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="37">
+        <v>0</v>
+      </c>
+      <c r="R14" s="37">
+        <v>0</v>
+      </c>
+      <c r="S14" s="37">
+        <v>0</v>
+      </c>
+      <c r="T14" s="37">
+        <v>0</v>
+      </c>
+      <c r="U14" s="37">
+        <v>0</v>
+      </c>
+      <c r="V14" s="37">
+        <v>0</v>
+      </c>
+      <c r="W14" s="37">
+        <v>0</v>
+      </c>
+      <c r="X14" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="37">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="37">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="37">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="37">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="37">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="37">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="37">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="37">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="37">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>76</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="37">
+        <v>0</v>
+      </c>
+      <c r="C15" s="37">
         <f>B15</f>
         <v>0</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="37">
         <f t="shared" ref="D15:AK15" si="0">C15</f>
         <v>0</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH15">
+      <c r="AH15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI15">
+      <c r="AI15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ15">
+      <c r="AJ15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK15">
+      <c r="AK15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>77</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="37">
+        <v>0</v>
+      </c>
+      <c r="C16" s="37">
         <f>B16</f>
         <v>0</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="37">
         <f t="shared" ref="D16:AK16" si="1">C16</f>
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB16">
+      <c r="AB16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE16">
+      <c r="AE16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF16">
+      <c r="AF16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH16">
+      <c r="AH16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI16">
+      <c r="AI16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AJ16">
+      <c r="AJ16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK16">
+      <c r="AK16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>78</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="37">
+        <v>0</v>
+      </c>
+      <c r="C17" s="37">
         <f>B17</f>
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="37">
         <f t="shared" ref="D17:AK17" si="2">C17</f>
         <v>0</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="37">
         <f>Calcs!C17</f>
         <v>1.5</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="37">
         <f>Calcs!D17</f>
         <v>1.5000000000001705</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="37">
         <f>Calcs!E17</f>
         <v>1.5</v>
       </c>
-      <c r="I17" s="45">
+      <c r="I17" s="37">
         <f>Calcs!F17</f>
         <v>1.5</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
+      <c r="J17" s="37">
+        <v>0</v>
+      </c>
+      <c r="K17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X17">
+      <c r="X17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB17">
+      <c r="AB17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC17">
+      <c r="AC17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD17">
+      <c r="AD17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE17">
+      <c r="AE17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF17">
+      <c r="AF17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG17">
+      <c r="AG17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH17">
+      <c r="AH17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI17">
+      <c r="AI17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AJ17">
+      <c r="AJ17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK17">
+      <c r="AK17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>

--- a/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
+++ b/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\OneDrive\Desktop\vensim test\Updated power sector data - 20200624\BPMCCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\elec\BPMCCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598BF0CC-3310-4F1D-B933-D85CD0133600}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,10 +17,11 @@
     <sheet name="Actuals-based BPMCCS adjustment" sheetId="5" r:id="rId3"/>
     <sheet name="Installed Capacities - 2017-19" sheetId="6" r:id="rId4"/>
     <sheet name="BCRbQ Data" sheetId="7" r:id="rId5"/>
-    <sheet name="Calcs" sheetId="3" r:id="rId6"/>
-    <sheet name="BPMCCS" sheetId="2" r:id="rId7"/>
+    <sheet name="Pumped Hydro" sheetId="8" r:id="rId6"/>
+    <sheet name="Calcs" sheetId="3" r:id="rId7"/>
+    <sheet name="BPMCCS" sheetId="2" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,12 +34,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Deepthi Swamy</author>
   </authors>
   <commentList>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={F92AF8FB-E5BB-489C-8308-3BA53514DA9A}</author>
     <author>tc={A1EF28D1-9FBF-4412-8119-632B82C52746}</author>
@@ -79,52 +79,106 @@
     <author>tc={E75C4685-8DFE-44D4-ADC3-BC68F658A250}</author>
   </authors>
   <commentList>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{F92AF8FB-E5BB-489C-8308-3BA53514DA9A}">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     http://www.cea.nic.in/reports/monthly/installedcapacity/2017/installed_capacity-12.pdf</t>
+        </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="I5" authorId="1" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     http://cea.nic.in/reports/monthly/installedcapacity/2018/installed_capacity-12.pdf</t>
+        </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="I6" authorId="2" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     http://cea.nic.in/reports/monthly/installedcapacity/2019/installed_capacity-12.pdf</t>
+        </r>
       </text>
     </comment>
-    <comment ref="I21" authorId="3" shapeId="0" xr:uid="{4E066AF6-143F-4678-9F67-AAC39185483E}">
+    <comment ref="I21" authorId="3" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     http://www.cea.nic.in/reports/monthly/installedcapacity/2017/installed_capacity-12.pdf</t>
+        </r>
       </text>
     </comment>
-    <comment ref="I22" authorId="4" shapeId="0" xr:uid="{0D7EEB2D-8A59-4BCA-906A-61DA703F8E6B}">
+    <comment ref="I22" authorId="4" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     http://cea.nic.in/reports/monthly/installedcapacity/2018/installed_capacity-12.pdf</t>
+        </r>
       </text>
     </comment>
-    <comment ref="I23" authorId="5" shapeId="0" xr:uid="{E75C4685-8DFE-44D4-ADC3-BC68F658A250}">
+    <comment ref="I23" authorId="5" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     http://cea.nic.in/reports/monthly/installedcapacity/2019/installed_capacity-12.pdf</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -132,17 +186,26 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={8138639F-3EC1-4320-8981-54E26E79ABF9}</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{8138639F-3EC1-4320-8981-54E26E79ABF9}">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Extra retirement is reflected between the installed capacity figures of 2018 &amp; 2017, as compared to collected data in BCRbQ. This could possibly be stranded capacity that is not retired, but we account for it to match with the installed operational capacity reported for 2018 by CEA.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -150,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="228">
   <si>
     <t>Note:</t>
   </si>
@@ -771,15 +834,127 @@
     <t>Calculated Capacity 
 (Prev. yr cap + BPMCCS - BCR)</t>
   </si>
+  <si>
+    <t>PUMPED STORAGE DEVELOPMENT IN INDIA</t>
+  </si>
+  <si>
+    <t>(Installed Capacity above 25 MW)</t>
+  </si>
+  <si>
+    <t>As on 30.09.2019</t>
+  </si>
+  <si>
+    <t>Installed Capacity</t>
+  </si>
+  <si>
+    <t>S.No.</t>
+  </si>
+  <si>
+    <t>SCHEMES</t>
+  </si>
+  <si>
+    <t>no. of units 
+X unit size (MW)</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>A. Schemes Constructed</t>
+  </si>
+  <si>
+    <t>a) Working in pumping mode</t>
+  </si>
+  <si>
+    <t>Nagarjuna Sagar -Telangana</t>
+  </si>
+  <si>
+    <t>7x100.80</t>
+  </si>
+  <si>
+    <t>Kadamparai -T.N</t>
+  </si>
+  <si>
+    <t>4x100</t>
+  </si>
+  <si>
+    <t>Bhira -Mah.</t>
+  </si>
+  <si>
+    <t>1x150</t>
+  </si>
+  <si>
+    <t>Srisailam LBPH -Telangana</t>
+  </si>
+  <si>
+    <t>6x150</t>
+  </si>
+  <si>
+    <t>Purlia PSS -W.B.</t>
+  </si>
+  <si>
+    <t>4x225</t>
+  </si>
+  <si>
+    <t>Ghatgar -Mah.</t>
+  </si>
+  <si>
+    <t>2x125</t>
+  </si>
+  <si>
+    <t>Working tot.</t>
+  </si>
+  <si>
+    <t>A. Schemes under construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tehri St.-II -Uttarakhand </t>
+  </si>
+  <si>
+    <t>4x250</t>
+  </si>
+  <si>
+    <t>Likely commissioning by 2021-23 (June’22)</t>
+  </si>
+  <si>
+    <t>Koyna Left Bank -Mah.</t>
+  </si>
+  <si>
+    <t>2x40</t>
+  </si>
+  <si>
+    <t>Likely commissioning by 2022-23</t>
+  </si>
+  <si>
+    <t>Kundah Pump Storage (Stage I,II,II&amp;IV)-T. N</t>
+  </si>
+  <si>
+    <t>4x 125</t>
+  </si>
+  <si>
+    <t>Pumped Storage Capacity (MW)</t>
+  </si>
+  <si>
+    <t>In the India EPS, the geothermal plant type is repurposed as pumped hydro capacity.</t>
+  </si>
+  <si>
+    <t>Pumped hydro</t>
+  </si>
+  <si>
+    <t>Pumped Storage Development in India</t>
+  </si>
+  <si>
+    <t>http://www.cea.nic.in/reports/monthly/hydro/2019/pump_storage-09.pdf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -869,6 +1044,32 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1283,7 +1484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1454,6 +1655,19 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1495,6 +1709,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1596,23 +1816,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1648,23 +1851,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1871,25 +2057,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="67.140625" customWidth="1"/>
-    <col min="4" max="4" width="59.7109375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+    <col min="4" max="4" width="59.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1900,7 +2086,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="62" t="s">
         <v>98</v>
@@ -1910,7 +2096,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>22</v>
@@ -1919,7 +2105,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="63">
         <v>2018</v>
       </c>
@@ -1927,7 +2113,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
@@ -1935,7 +2121,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -1943,7 +2129,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>177</v>
       </c>
@@ -1951,7 +2137,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="62" t="s">
         <v>98</v>
       </c>
@@ -1959,7 +2145,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1967,7 +2153,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="63">
         <v>2018</v>
       </c>
@@ -1975,7 +2161,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
         <v>23</v>
@@ -1984,7 +2170,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>38</v>
@@ -1993,10 +2179,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>150</v>
@@ -2005,7 +2191,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="62" t="s">
         <v>98</v>
@@ -2014,42 +2200,42 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="63" t="s">
         <v>151</v>
       </c>
       <c r="D20" s="63"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="B21" s="4" t="s">
         <v>152</v>
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
         <v>115</v>
@@ -2058,7 +2244,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
       <c r="B26" s="62" t="s">
         <v>116</v>
@@ -2067,7 +2253,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
       <c r="B27" t="s">
         <v>117</v>
@@ -2076,7 +2262,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
       <c r="B28" s="63">
         <v>2019</v>
@@ -2085,7 +2271,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="B29" s="4" t="s">
         <v>118</v>
@@ -2094,309 +2280,333 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
       <c r="B30" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D32" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
       <c r="B33" s="62" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="2"/>
       <c r="B34" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D34" s="130">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="2"/>
       <c r="B35" s="63">
         <v>2019</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="2"/>
       <c r="B36" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D36" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" s="108" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A56" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A58" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A61" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A62" s="2"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A64" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="31">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" s="2"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" s="31">
         <v>0.8</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B72" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="74"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" s="74"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79" s="2"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="22" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A81" s="22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A82" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A83" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A84" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A85" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A86" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A87" s="2" t="s">
         <v>142</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B22" r:id="rId3" xr:uid="{19AF4E17-429A-496F-B656-427C170B9D64}"/>
-    <hyperlink ref="B21" r:id="rId4" xr:uid="{A89B6416-8F16-4883-A2BE-AA6BA75B136E}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B22" r:id="rId3"/>
+    <hyperlink ref="B21" r:id="rId4"/>
+    <hyperlink ref="D36" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.265625" customWidth="1"/>
+    <col min="6" max="6" width="10.73046875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="25.3984375" customWidth="1"/>
+    <col min="11" max="11" width="19.86328125" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="23" t="s">
         <v>39</v>
       </c>
@@ -2423,17 +2633,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="102" t="s">
+    <row r="2" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
       <c r="G2" s="6"/>
       <c r="H2" s="8" t="s">
         <v>32</v>
@@ -2452,8 +2662,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="103"/>
+    <row r="3" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="110"/>
       <c r="B3" s="20" t="s">
         <v>41</v>
       </c>
@@ -2487,7 +2697,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="16" t="s">
         <v>28</v>
       </c>
@@ -2524,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="16" t="s">
         <v>27</v>
       </c>
@@ -2561,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="16" t="s">
         <v>26</v>
       </c>
@@ -2588,13 +2798,13 @@
         <v>266827</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="105" t="s">
+      <c r="K6" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="16" t="s">
         <v>47</v>
       </c>
@@ -2622,7 +2832,7 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -2641,7 +2851,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
@@ -2657,12 +2867,12 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="105" t="s">
+    <row r="10" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
       <c r="H10" s="8" t="s">
         <v>26</v>
       </c>
@@ -2670,7 +2880,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H11" s="8" t="s">
         <v>25</v>
       </c>
@@ -2678,21 +2888,21 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="105" t="s">
+    <row r="12" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H12" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="106"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H13" s="110"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I12" s="113"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="H13" s="117"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="39.75" x14ac:dyDescent="0.45">
       <c r="A15" s="18"/>
       <c r="B15" s="21" t="s">
         <v>58</v>
@@ -2713,7 +2923,7 @@
       <c r="L15" s="24"/>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -2736,7 +2946,7 @@
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="18" t="s">
         <v>50</v>
       </c>
@@ -2746,14 +2956,14 @@
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="109"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H17" s="114"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="116"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="18" t="s">
         <v>29</v>
       </c>
@@ -2769,14 +2979,14 @@
         <f>I5-C18</f>
         <v>-993.15000000000146</v>
       </c>
-      <c r="H18" s="108"/>
+      <c r="H18" s="115"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="18" t="s">
         <v>51</v>
       </c>
@@ -2793,7 +3003,7 @@
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="18" t="s">
         <v>18</v>
       </c>
@@ -2819,7 +3029,7 @@
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="18" t="s">
         <v>52</v>
       </c>
@@ -2842,7 +3052,7 @@
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="18" t="s">
         <v>53</v>
       </c>
@@ -2865,7 +3075,7 @@
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="18" t="s">
         <v>54</v>
       </c>
@@ -2888,7 +3098,7 @@
       <c r="L23" s="11"/>
       <c r="M23" s="27"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="18" t="s">
         <v>26</v>
       </c>
@@ -2912,7 +3122,7 @@
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="18" t="s">
         <v>55</v>
       </c>
@@ -2946,29 +3156,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.86328125" customWidth="1"/>
+    <col min="5" max="5" width="20.265625" customWidth="1"/>
+    <col min="6" max="6" width="8.265625" customWidth="1"/>
+    <col min="7" max="7" width="24.59765625" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.86328125" customWidth="1"/>
+    <col min="11" max="11" width="10.73046875" customWidth="1"/>
+    <col min="12" max="12" width="11.59765625" customWidth="1"/>
+    <col min="15" max="15" width="10.59765625" customWidth="1"/>
+    <col min="17" max="17" width="13.1328125" customWidth="1"/>
+    <col min="19" max="19" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="68" t="s">
         <v>109</v>
       </c>
@@ -2989,7 +3199,7 @@
       <c r="N1" s="70"/>
       <c r="O1" s="70"/>
     </row>
-    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
@@ -3004,22 +3214,22 @@
         <v>106</v>
       </c>
       <c r="F2" s="34">
-        <f>About!A70*'Actuals-based BPMCCS adjustment'!B2*1000</f>
+        <f>About!A72*'Actuals-based BPMCCS adjustment'!B2*1000</f>
         <v>140000</v>
       </c>
       <c r="G2" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="112" t="s">
+      <c r="J2" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="114"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="121"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
         <v>92</v>
       </c>
@@ -3064,7 +3274,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>27</v>
       </c>
@@ -3109,7 +3319,7 @@
         <v>17052.41</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
         <v>87</v>
       </c>
@@ -3151,7 +3361,7 @@
         <v>25212.26</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
         <v>26</v>
       </c>
@@ -3193,7 +3403,7 @@
         <v>33730.559999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" s="46" t="s">
         <v>105</v>
       </c>
@@ -3208,7 +3418,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" s="46"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -3217,7 +3427,7 @@
       <c r="G8" s="46"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" s="71" t="s">
         <v>168</v>
       </c>
@@ -3229,24 +3439,24 @@
       <c r="G9" s="73"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="102" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A10" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="115"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="122"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
       <c r="R10" s="28"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="103"/>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A11" s="110"/>
       <c r="B11" s="20">
         <v>2017</v>
       </c>
@@ -3267,7 +3477,7 @@
       </c>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" s="16" t="s">
         <v>28</v>
       </c>
@@ -3300,7 +3510,7 @@
       </c>
       <c r="I12" s="24"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="16" t="s">
         <v>27</v>
       </c>
@@ -3332,7 +3542,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="16" t="s">
         <v>26</v>
       </c>
@@ -3364,7 +3574,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="16" t="s">
         <v>87</v>
       </c>
@@ -3396,7 +3606,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="16" t="s">
         <v>88</v>
       </c>
@@ -3428,7 +3638,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18" s="69" t="s">
         <v>157</v>
       </c>
@@ -3447,29 +3657,29 @@
       <c r="N18" s="70"/>
       <c r="O18" s="70"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="102" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A19" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
       <c r="H19" s="76"/>
-      <c r="J19" s="112" t="s">
+      <c r="J19" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="113"/>
-      <c r="O19" s="114"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="103"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="121"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A20" s="110"/>
       <c r="B20" s="53">
         <v>2018</v>
       </c>
@@ -3508,7 +3718,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" s="16" t="s">
         <v>28</v>
       </c>
@@ -3555,7 +3765,7 @@
         <v>837.63</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22" s="16" t="s">
         <v>27</v>
       </c>
@@ -3602,7 +3812,7 @@
         <v>637.63</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A23" s="16" t="s">
         <v>26</v>
       </c>
@@ -3649,7 +3859,7 @@
         <v>509.71</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A24" s="16" t="s">
         <v>87</v>
       </c>
@@ -3677,7 +3887,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A25" s="16" t="s">
         <v>88</v>
       </c>
@@ -3702,7 +3912,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>156</v>
       </c>
@@ -3710,8 +3920,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:18" ht="39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="28" spans="1:18" ht="26.65" x14ac:dyDescent="0.45">
       <c r="A28" s="71" t="s">
         <v>169</v>
       </c>
@@ -3732,18 +3942,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="102" t="s">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A29" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="116" t="s">
+      <c r="B29" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="115"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="122"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
       <c r="J29" s="93" t="s">
@@ -3757,8 +3967,8 @@
       </c>
       <c r="R29" s="28"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="103"/>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A30" s="110"/>
       <c r="B30" s="100">
         <v>2017</v>
       </c>
@@ -3788,7 +3998,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="16" t="s">
         <v>161</v>
       </c>
@@ -3830,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="16" t="s">
         <v>166</v>
       </c>
@@ -3871,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33" s="16" t="s">
         <v>18</v>
       </c>
@@ -3902,13 +4112,13 @@
       <c r="H33" t="s">
         <v>94</v>
       </c>
-      <c r="J33" s="105" t="s">
+      <c r="J33" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="K33" s="106"/>
-      <c r="L33" s="106"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K33" s="113"/>
+      <c r="L33" s="113"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" s="16" t="s">
         <v>32</v>
       </c>
@@ -3940,7 +4150,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" s="16" t="s">
         <v>50</v>
       </c>
@@ -3969,7 +4179,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" s="16" t="s">
         <v>167</v>
       </c>
@@ -3998,7 +4208,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" s="16" t="s">
         <v>181</v>
       </c>
@@ -4027,7 +4237,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39" s="69" t="s">
         <v>163</v>
       </c>
@@ -4038,26 +4248,26 @@
       <c r="F39" s="70"/>
       <c r="G39" s="70"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="102" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A40" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="117" t="s">
+      <c r="B40" s="124" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="117"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="117"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="118"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="118"/>
-      <c r="K40" s="119"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="125"/>
+      <c r="H40" s="125"/>
+      <c r="I40" s="125"/>
+      <c r="J40" s="125"/>
+      <c r="K40" s="126"/>
       <c r="M40" s="28"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="103"/>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A41" s="110"/>
       <c r="B41" s="54">
         <v>2018</v>
       </c>
@@ -4089,7 +4299,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42" s="16" t="s">
         <v>161</v>
       </c>
@@ -4134,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43" s="16" t="s">
         <v>166</v>
       </c>
@@ -4181,7 +4391,7 @@
       <c r="M43" s="28"/>
       <c r="N43" s="28"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44" s="16" t="s">
         <v>18</v>
       </c>
@@ -4227,7 +4437,7 @@
       </c>
       <c r="M44" s="28"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45" s="16" t="s">
         <v>32</v>
       </c>
@@ -4272,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46" s="16" t="s">
         <v>50</v>
       </c>
@@ -4317,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47" s="16" t="s">
         <v>167</v>
       </c>
@@ -4364,7 +4574,7 @@
       <c r="M47" s="28"/>
       <c r="O47" s="28"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" s="16" t="s">
         <v>181</v>
       </c>
@@ -4413,7 +4623,7 @@
       <c r="O48" s="28"/>
       <c r="P48" s="28"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
         <v>156</v>
       </c>
@@ -4421,7 +4631,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="90" t="s">
         <v>164</v>
       </c>
@@ -4435,7 +4645,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
         <v>175</v>
       </c>
@@ -4461,28 +4671,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B167E7-3EA4-4856-A655-C3C21FA20E8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.265625" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" customWidth="1"/>
+    <col min="7" max="7" width="13.59765625" customWidth="1"/>
+    <col min="8" max="8" width="14.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="120" t="s">
+    <row r="1" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G1" s="127" t="s">
         <v>190</v>
       </c>
-      <c r="H1" s="121"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1" s="128"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>179</v>
       </c>
@@ -4502,7 +4712,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -4527,7 +4737,7 @@
         <v>198494.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -4553,7 +4763,7 @@
       </c>
       <c r="I4" s="28"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -4579,7 +4789,7 @@
         <v>6782</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -4606,7 +4816,7 @@
         <v>50071.780000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -4631,7 +4841,7 @@
         <v>37505.18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -4656,7 +4866,7 @@
         <v>33730.559999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -4678,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -4703,7 +4913,7 @@
         <v>9861.31</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -4725,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -4750,7 +4960,7 @@
         <v>511.71</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -4775,7 +4985,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -4800,7 +5010,7 @@
         <v>6760</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -4822,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -4844,7 +5054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -4866,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -4901,19 +5111,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6361F9-989D-4191-B3B5-3A0834F03087}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>182</v>
       </c>
@@ -4924,7 +5134,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -4935,7 +5145,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -4947,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -4958,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -4969,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -4980,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>183</v>
       </c>
@@ -4991,7 +5201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -5002,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -5013,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -5024,7 +5234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -5035,7 +5245,7 @@
         <v>127.92</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -5046,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -5057,7 +5267,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -5068,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -5079,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -5090,7 +5300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -5108,22 +5318,523 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="102" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="102" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="102" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A4" s="103"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="129" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="129"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A5" s="104" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="104" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="105" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A6" s="106" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A7" s="106" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="13">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="16">
+        <v>705.6</v>
+      </c>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="13">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="13">
+        <v>400</v>
+      </c>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="13">
+        <v>3</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="13">
+        <v>150</v>
+      </c>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="13">
+        <v>4</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" s="13">
+        <v>900</v>
+      </c>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="13">
+        <v>5</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="13">
+        <v>900</v>
+      </c>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="13">
+        <v>6</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" s="13">
+        <v>250</v>
+      </c>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A14" s="106"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="13">
+        <f>SUM(D8:D13)</f>
+        <v>3305.6</v>
+      </c>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A16" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:36" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="13">
+        <v>1</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="107" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A18" s="13">
+        <v>2</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="13">
+        <v>80</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A19" s="13">
+        <v>3</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19" s="13">
+        <v>500</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>2016</v>
+      </c>
+      <c r="C21">
+        <v>2017</v>
+      </c>
+      <c r="D21">
+        <v>2018</v>
+      </c>
+      <c r="E21">
+        <v>2019</v>
+      </c>
+      <c r="F21">
+        <v>2020</v>
+      </c>
+      <c r="G21">
+        <v>2021</v>
+      </c>
+      <c r="H21">
+        <v>2022</v>
+      </c>
+      <c r="I21">
+        <v>2023</v>
+      </c>
+      <c r="J21">
+        <v>2024</v>
+      </c>
+      <c r="K21">
+        <v>2025</v>
+      </c>
+      <c r="L21">
+        <v>2026</v>
+      </c>
+      <c r="M21">
+        <v>2027</v>
+      </c>
+      <c r="N21">
+        <v>2028</v>
+      </c>
+      <c r="O21">
+        <v>2029</v>
+      </c>
+      <c r="P21">
+        <v>2030</v>
+      </c>
+      <c r="Q21">
+        <v>2031</v>
+      </c>
+      <c r="R21">
+        <v>2032</v>
+      </c>
+      <c r="S21">
+        <v>2033</v>
+      </c>
+      <c r="T21">
+        <v>2034</v>
+      </c>
+      <c r="U21">
+        <v>2035</v>
+      </c>
+      <c r="V21">
+        <v>2036</v>
+      </c>
+      <c r="W21">
+        <v>2037</v>
+      </c>
+      <c r="X21">
+        <v>2038</v>
+      </c>
+      <c r="Y21">
+        <v>2039</v>
+      </c>
+      <c r="Z21">
+        <v>2040</v>
+      </c>
+      <c r="AA21">
+        <v>2041</v>
+      </c>
+      <c r="AB21">
+        <v>2042</v>
+      </c>
+      <c r="AC21">
+        <v>2043</v>
+      </c>
+      <c r="AD21">
+        <v>2044</v>
+      </c>
+      <c r="AE21">
+        <v>2045</v>
+      </c>
+      <c r="AF21">
+        <v>2046</v>
+      </c>
+      <c r="AG21">
+        <v>2047</v>
+      </c>
+      <c r="AH21">
+        <v>2048</v>
+      </c>
+      <c r="AI21">
+        <v>2049</v>
+      </c>
+      <c r="AJ21">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>223</v>
+      </c>
+      <c r="B22" s="28">
+        <f>D22</f>
+        <v>3305.6</v>
+      </c>
+      <c r="C22" s="28">
+        <f>D22</f>
+        <v>3305.6</v>
+      </c>
+      <c r="D22" s="28">
+        <f>D14</f>
+        <v>3305.6</v>
+      </c>
+      <c r="E22" s="28">
+        <f t="shared" ref="E22:F22" si="0">B22</f>
+        <v>3305.6</v>
+      </c>
+      <c r="F22" s="28">
+        <f t="shared" si="0"/>
+        <v>3305.6</v>
+      </c>
+      <c r="G22" s="28">
+        <f>D22</f>
+        <v>3305.6</v>
+      </c>
+      <c r="H22" s="28">
+        <f>G22+D17</f>
+        <v>4305.6000000000004</v>
+      </c>
+      <c r="I22" s="28">
+        <f>H22+D18+D19</f>
+        <v>4885.6000000000004</v>
+      </c>
+      <c r="J22" s="28">
+        <f t="shared" ref="J22:AJ22" si="1">I22</f>
+        <v>4885.6000000000004</v>
+      </c>
+      <c r="K22" s="28">
+        <f t="shared" si="1"/>
+        <v>4885.6000000000004</v>
+      </c>
+      <c r="L22" s="28">
+        <f t="shared" si="1"/>
+        <v>4885.6000000000004</v>
+      </c>
+      <c r="M22" s="28">
+        <f t="shared" si="1"/>
+        <v>4885.6000000000004</v>
+      </c>
+      <c r="N22" s="28">
+        <f t="shared" si="1"/>
+        <v>4885.6000000000004</v>
+      </c>
+      <c r="O22" s="28">
+        <f t="shared" si="1"/>
+        <v>4885.6000000000004</v>
+      </c>
+      <c r="P22" s="28">
+        <f t="shared" si="1"/>
+        <v>4885.6000000000004</v>
+      </c>
+      <c r="Q22" s="28">
+        <f t="shared" si="1"/>
+        <v>4885.6000000000004</v>
+      </c>
+      <c r="R22" s="28">
+        <f t="shared" si="1"/>
+        <v>4885.6000000000004</v>
+      </c>
+      <c r="S22" s="28">
+        <f t="shared" si="1"/>
+        <v>4885.6000000000004</v>
+      </c>
+      <c r="T22" s="28">
+        <f t="shared" si="1"/>
+        <v>4885.6000000000004</v>
+      </c>
+      <c r="U22" s="28">
+        <f t="shared" si="1"/>
+        <v>4885.6000000000004</v>
+      </c>
+      <c r="V22" s="28">
+        <f t="shared" si="1"/>
+        <v>4885.6000000000004</v>
+      </c>
+      <c r="W22" s="28">
+        <f t="shared" si="1"/>
+        <v>4885.6000000000004</v>
+      </c>
+      <c r="X22" s="28">
+        <f t="shared" si="1"/>
+        <v>4885.6000000000004</v>
+      </c>
+      <c r="Y22" s="28">
+        <f t="shared" si="1"/>
+        <v>4885.6000000000004</v>
+      </c>
+      <c r="Z22" s="28">
+        <f t="shared" si="1"/>
+        <v>4885.6000000000004</v>
+      </c>
+      <c r="AA22" s="28">
+        <f t="shared" si="1"/>
+        <v>4885.6000000000004</v>
+      </c>
+      <c r="AB22" s="28">
+        <f t="shared" si="1"/>
+        <v>4885.6000000000004</v>
+      </c>
+      <c r="AC22" s="28">
+        <f t="shared" si="1"/>
+        <v>4885.6000000000004</v>
+      </c>
+      <c r="AD22" s="28">
+        <f t="shared" si="1"/>
+        <v>4885.6000000000004</v>
+      </c>
+      <c r="AE22" s="28">
+        <f t="shared" si="1"/>
+        <v>4885.6000000000004</v>
+      </c>
+      <c r="AF22" s="28">
+        <f t="shared" si="1"/>
+        <v>4885.6000000000004</v>
+      </c>
+      <c r="AG22" s="28">
+        <f t="shared" si="1"/>
+        <v>4885.6000000000004</v>
+      </c>
+      <c r="AH22" s="28">
+        <f t="shared" si="1"/>
+        <v>4885.6000000000004</v>
+      </c>
+      <c r="AI22" s="28">
+        <f t="shared" si="1"/>
+        <v>4885.6000000000004</v>
+      </c>
+      <c r="AJ22" s="28">
+        <f t="shared" si="1"/>
+        <v>4885.6000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="13" max="13" width="26.5703125" customWidth="1"/>
+    <col min="13" max="13" width="26.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5163,7 +5874,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -5193,7 +5904,7 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -5223,7 +5934,7 @@
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5268,7 +5979,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5293,7 +6004,7 @@
         <v>1518.609999999986</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="75" t="s">
         <v>15</v>
       </c>
@@ -5318,7 +6029,7 @@
         <v>3498.2733333333308</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="75" t="s">
         <v>4</v>
       </c>
@@ -5343,12 +6054,12 @@
         <v>15423.146666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="75" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="75" t="s">
         <v>6</v>
       </c>
@@ -5373,12 +6084,12 @@
         <v>785.80999999982305</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -5403,7 +6114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -5420,7 +6131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -5437,22 +6148,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="75" t="s">
         <v>76</v>
       </c>
@@ -5482,23 +6193,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -5611,7 +6322,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -5734,7 +6445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -5853,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -5976,7 +6687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -6095,7 +6806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -6214,7 +6925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -6333,7 +7044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -6452,7 +7163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -6571,7 +7282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -6601,12 +7312,12 @@
         <v>0</v>
       </c>
       <c r="I10" s="28">
-        <f>Calcs!F10</f>
-        <v>0</v>
+        <f>'Pumped Hydro'!D17</f>
+        <v>1000</v>
       </c>
       <c r="J10" s="28">
-        <f>Calcs!G10</f>
-        <v>0</v>
+        <f>'Pumped Hydro'!D18+'Pumped Hydro'!D19</f>
+        <v>580</v>
       </c>
       <c r="K10" s="28">
         <v>0</v>
@@ -6690,7 +7401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -6809,7 +7520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -6928,7 +7639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -7047,7 +7758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -7166,7 +7877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -7314,7 +8025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -7462,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>76</v>
       </c>

--- a/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
+++ b/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\elec\BPMCCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\elec\BPMCCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="3180" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,14 @@
     <sheet name="Calcs" sheetId="3" r:id="rId7"/>
     <sheet name="BPMCCS" sheetId="2" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -213,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="212">
   <si>
     <t>Note:</t>
   </si>
@@ -462,9 +464,6 @@
     <t>case), etc.</t>
   </si>
   <si>
-    <t xml:space="preserve">which have been a significant barrier for tender participation in the RE auctions. </t>
-  </si>
-  <si>
     <t>40% installed capacity is from non-fossil fuels.</t>
   </si>
   <si>
@@ -542,9 +541,6 @@
 achievement (MW)*</t>
   </si>
   <si>
-    <t>* Calculated based on success rate fraction in About tab</t>
-  </si>
-  <si>
     <t>Source: CEA - National Electricity Plan Vol I</t>
   </si>
   <si>
@@ -581,18 +577,6 @@
     <t>Projected RE installed capacity for FY22</t>
   </si>
   <si>
-    <t>News on removal of tariff caps for solar and wind auctions</t>
-  </si>
-  <si>
-    <t>MERCOM India</t>
-  </si>
-  <si>
-    <t>MNRE Mulls Removal of Tariff Caps for Solar and Wind Tenders</t>
-  </si>
-  <si>
-    <t>https://mercomindia.com/mnre-mulls-removal-tariff-caps-solar-wind/</t>
-  </si>
-  <si>
     <t>Classification of large hydro as RE</t>
   </si>
   <si>
@@ -611,37 +595,10 @@
     <t>estimates that only 104 GW would be achieved by 2022 (which is ~60% of the intended target),</t>
   </si>
   <si>
-    <t>due to various hurdles in project commissioning.</t>
-  </si>
-  <si>
-    <t>Further, there is a reclassification of larger hydro as RE recently, which could technically</t>
-  </si>
-  <si>
-    <t>make it possible to reach, or even surpass the 175 GW target by 2022 in terms of a combined</t>
-  </si>
-  <si>
-    <t>and not just by adding large hydro to the mix, which would significantly increase the size of RE.</t>
-  </si>
-  <si>
-    <t>potential removal of tariff caps for wind and solar tenders, it would be possible to reach about</t>
-  </si>
-  <si>
-    <t>80% of the mandated RE target by 2022. The balance capacity remaining, after subtracting the</t>
-  </si>
-  <si>
-    <t>current RE capacities for each source, is divided between 2020 to 2022 for wind and solar.</t>
-  </si>
-  <si>
     <t>For SHP, biomass (and MSW), the targets are already almost reached, and we assume that</t>
   </si>
   <si>
     <t>they will continue to grow at the same rate till 2022 to help reach the 175 GW combined target.</t>
-  </si>
-  <si>
-    <t>The success rate % can be changed in the About tab to accordingly assess the yearly balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">capacity additions to reach the "adjusted" target. </t>
   </si>
   <si>
     <r>
@@ -699,15 +656,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">we interpret the overall RE target to be achieved on reaching the disaggregated targets, </t>
-  </si>
-  <si>
-    <t>RE target. But since the 175 GW target was disaggregated (for wind, solar, biomass and SHP),</t>
-  </si>
-  <si>
-    <t>Fraction of RE target achievable by 2022</t>
-  </si>
-  <si>
     <t>Capacity Additions 2030 (for calculation only - not used)</t>
   </si>
   <si>
@@ -720,9 +668,6 @@
     <t>http://www.cea.nic.in/reports/monthly/installedcapacity/2017/installed_capacity-12.pdf</t>
   </si>
   <si>
-    <t>In parallel, there are recent reports of potential removal of tariff caps for solar and wind tenders,</t>
-  </si>
-  <si>
     <t xml:space="preserve">In case of 2018 and 2019, actual capacity added is used for the mandated values as actuals are available. </t>
   </si>
   <si>
@@ -793,9 +738,6 @@
   </si>
   <si>
     <t>Planned Capacity Additions till 2022 (RE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We assume in light of recent public announcements of a 450 GW target by 2030, and the </t>
   </si>
   <si>
     <t>Year/MW</t>
@@ -945,6 +887,18 @@
   </si>
   <si>
     <t>http://www.cea.nic.in/reports/monthly/hydro/2019/pump_storage-09.pdf</t>
+  </si>
+  <si>
+    <t>due to various hurdles in project commissioning. We assume this conservative estimate till 2022.</t>
+  </si>
+  <si>
+    <t>* based on CRISIL estimate</t>
+  </si>
+  <si>
+    <t>The balance capacity remaining, after subtracting the current RE capacities</t>
+  </si>
+  <si>
+    <t>from the CRISIL estimate, is apportioned between 2020 to 2022 for wind and solar.</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1486,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1668,6 +1621,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1686,6 +1643,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1695,15 +1661,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1712,9 +1669,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1732,6 +1686,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>25977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3757533</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>110538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D40D24-2210-4F41-9C04-B84C529D41E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="701386" y="10122477"/>
+          <a:ext cx="3662283" cy="1989561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2058,10 +2061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2080,20 +2083,20 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
-      <c r="B4" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62" t="s">
-        <v>98</v>
+      <c r="B4" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="61" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -2102,14 +2105,14 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="63">
+      <c r="B6" s="62">
         <v>2018</v>
       </c>
-      <c r="D6" s="63">
+      <c r="D6" s="62">
         <v>2019</v>
       </c>
     </row>
@@ -2126,23 +2129,23 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B11" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>100</v>
+      <c r="B11" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -2150,14 +2153,14 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B13" s="63">
+      <c r="B13" s="62">
         <v>2018</v>
       </c>
-      <c r="D13" s="63">
+      <c r="D13" s="62">
         <v>2015</v>
       </c>
     </row>
@@ -2167,7 +2170,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -2176,7 +2179,7 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -2185,51 +2188,51 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
-      <c r="B18" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="62" t="s">
-        <v>186</v>
+      <c r="B18" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="61" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
-      <c r="B20" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" s="63"/>
+      <c r="B20" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="62"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="B21" s="4" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
@@ -2238,52 +2241,41 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>120</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D25" s="109"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
-      <c r="B26" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="62" t="s">
-        <v>121</v>
-      </c>
+      <c r="B26" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="61"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
       <c r="B27" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
-      <c r="B28" s="63">
+      <c r="B28" s="62">
         <v>2019</v>
       </c>
-      <c r="D28" s="63">
-        <v>2020</v>
-      </c>
+      <c r="D28" s="62"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="B29" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
@@ -2292,46 +2284,46 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
-      <c r="B33" s="62" t="s">
-        <v>125</v>
+      <c r="B33" s="61" t="s">
+        <v>119</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="2"/>
       <c r="B34" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" s="130">
+        <v>120</v>
+      </c>
+      <c r="D34" s="108">
         <v>43709</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="2"/>
-      <c r="B35" s="63">
+      <c r="B35" s="62">
         <v>2019</v>
       </c>
       <c r="D35" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="2"/>
       <c r="B36" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
@@ -2363,8 +2355,8 @@
       <c r="A43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A44" s="108" t="s">
-        <v>224</v>
+      <c r="A44" s="107" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
@@ -2372,12 +2364,12 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
@@ -2385,190 +2377,151 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
-        <v>130</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" s="2"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A55" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="A55" s="2"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A56" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="A56" s="2"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A57" s="2" t="s">
-        <v>131</v>
-      </c>
+      <c r="A57" s="2"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A58" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="A58" s="2"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A59" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="A59" s="2"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A60" s="2" t="s">
-        <v>146</v>
-      </c>
+      <c r="A60" s="2"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A61" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="A61" s="2"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" s="2"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A63" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="A63" s="2"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A64" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" s="2"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A66" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A67" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A68" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A69" s="73"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A70" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A66" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A67" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A68" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A69" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A70" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A71" s="2"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A72" s="31">
-        <v>0.8</v>
-      </c>
-      <c r="B72" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A73" s="74"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A71" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A72" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A73" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A75" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A75" s="2"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A77" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A77" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A79" s="2"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A79" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A81" s="22" t="s">
-        <v>82</v>
+      <c r="A81" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A84" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A85" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A86" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A87" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2578,9 +2531,11 @@
     <hyperlink ref="B22" r:id="rId3"/>
     <hyperlink ref="B21" r:id="rId4"/>
     <hyperlink ref="D36" r:id="rId5"/>
+    <hyperlink ref="B29" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -2623,27 +2578,27 @@
         <v>831502</v>
       </c>
       <c r="J1" s="6"/>
-      <c r="K1" s="77" t="s">
+      <c r="K1" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="78" t="s">
+      <c r="L1" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="79" t="s">
+      <c r="M1" s="78" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="6"/>
       <c r="H2" s="8" t="s">
         <v>32</v>
@@ -2652,18 +2607,18 @@
         <v>64089</v>
       </c>
       <c r="J2" s="6"/>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="81">
+      <c r="L2" s="80">
         <v>47855</v>
       </c>
-      <c r="M2" s="82">
+      <c r="M2" s="81">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="110"/>
+      <c r="A3" s="111"/>
       <c r="B3" s="20" t="s">
         <v>41</v>
       </c>
@@ -2687,13 +2642,13 @@
         <v>5000</v>
       </c>
       <c r="J3" s="6"/>
-      <c r="K3" s="80" t="s">
+      <c r="K3" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="81">
+      <c r="L3" s="80">
         <v>3300</v>
       </c>
-      <c r="M3" s="82">
+      <c r="M3" s="81">
         <v>6800</v>
       </c>
     </row>
@@ -2724,13 +2679,13 @@
         <v>4356</v>
       </c>
       <c r="J4" s="6"/>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="81">
+      <c r="L4" s="80">
         <v>406.15</v>
       </c>
-      <c r="M4" s="82">
+      <c r="M4" s="81">
         <v>0</v>
       </c>
     </row>
@@ -2761,13 +2716,13 @@
         <v>24350</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="84" t="s">
+      <c r="K5" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="85">
+      <c r="L5" s="84">
         <v>6822.5</v>
       </c>
-      <c r="M5" s="86">
+      <c r="M5" s="85">
         <v>0</v>
       </c>
     </row>
@@ -2798,11 +2753,11 @@
         <v>266827</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="112" t="s">
-        <v>108</v>
-      </c>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
+      <c r="K6" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
     </row>
     <row r="7" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="16" t="s">
@@ -2868,11 +2823,11 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="112" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
+      <c r="A10" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
       <c r="H10" s="8" t="s">
         <v>26</v>
       </c>
@@ -2889,15 +2844,15 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H12" s="112" t="s">
+      <c r="H12" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="113"/>
+      <c r="I12" s="114"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="H13" s="117"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="H14" s="14"/>
@@ -2956,12 +2911,12 @@
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="116"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="18" t="s">
@@ -2979,7 +2934,7 @@
         <f>I5-C18</f>
         <v>-993.15000000000146</v>
       </c>
-      <c r="H18" s="115"/>
+      <c r="H18" s="116"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
@@ -3159,8 +3114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3179,99 +3134,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A1" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="67"/>
-      <c r="E1" s="69" t="s">
-        <v>173</v>
-      </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="I1" s="69" t="s">
-        <v>159</v>
-      </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
+      <c r="A1" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="66"/>
+      <c r="E1" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="I1" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
     </row>
     <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="36">
+        <v>175</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="33">
+        <f>SUM(F3:F6)</f>
+        <v>119000</v>
+      </c>
+      <c r="G2" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="37">
-        <v>175</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="34">
-        <f>About!A72*'Actuals-based BPMCCS adjustment'!B2*1000</f>
-        <v>140000</v>
-      </c>
-      <c r="G2" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="J2" s="119" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="121"/>
+      <c r="J2" s="125" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="127"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="13">
         <v>100</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="31">
         <f>B3/175</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="35">
-        <f>C3*$F$2</f>
-        <v>80000</v>
-      </c>
-      <c r="G3" s="38">
+        <v>91</v>
+      </c>
+      <c r="F3" s="34">
+        <v>59000</v>
+      </c>
+      <c r="G3" s="37">
         <f>F3-D12</f>
-        <v>46269.440000000002</v>
-      </c>
-      <c r="I3" s="33" t="s">
+        <v>25269.440000000002</v>
+      </c>
+      <c r="I3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="L3" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="44" t="s">
+      <c r="O3" s="44" t="s">
         <v>88</v>
-      </c>
-      <c r="O3" s="45" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.45">
@@ -3281,7 +3235,7 @@
       <c r="B4" s="13">
         <v>60</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="31">
         <f>B4/175</f>
         <v>0.34285714285714286</v>
       </c>
@@ -3289,13 +3243,12 @@
       <c r="E4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="36">
-        <f>C4*$F$2</f>
-        <v>48000</v>
-      </c>
-      <c r="G4" s="38">
+      <c r="F4" s="35">
+        <v>45000</v>
+      </c>
+      <c r="G4" s="37">
         <f>F4-D13</f>
-        <v>10494.82</v>
+        <v>7494.82</v>
       </c>
       <c r="I4" s="13">
         <v>2017</v>
@@ -3321,24 +3274,24 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="30">
         <v>5</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="31">
         <f>B5/175</f>
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="36">
+        <v>86</v>
+      </c>
+      <c r="F5" s="35">
         <f>B5*1000</f>
         <v>5000</v>
       </c>
-      <c r="G5" s="40"/>
+      <c r="G5" s="39"/>
       <c r="I5" s="13">
         <v>2018</v>
       </c>
@@ -3368,7 +3321,7 @@
       <c r="B6" s="30">
         <v>10</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="31">
         <f>B6/175</f>
         <v>5.7142857142857141E-2</v>
       </c>
@@ -3376,11 +3329,11 @@
       <c r="E6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="36">
         <f>B6*1000</f>
         <v>10000</v>
       </c>
-      <c r="G6" s="41"/>
+      <c r="G6" s="40"/>
       <c r="I6" s="13">
         <v>2019</v>
       </c>
@@ -3404,59 +3357,59 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A7" s="46" t="s">
-        <v>105</v>
+      <c r="A7" s="45" t="s">
+        <v>104</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
-      <c r="E7" s="46" t="s">
-        <v>107</v>
+      <c r="E7" s="45" t="s">
+        <v>209</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
-      <c r="I7" s="46" t="s">
-        <v>158</v>
+      <c r="I7" s="45" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A8" s="46"/>
+      <c r="A8" s="45"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="46"/>
+      <c r="G8" s="45"/>
       <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A9" s="71" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
+      <c r="A9" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="69"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="111" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="122"/>
+      <c r="B10" s="112" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="121"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A11" s="110"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="20">
         <v>2017</v>
       </c>
@@ -3493,20 +3446,20 @@
         <f>O6</f>
         <v>33730.559999999998</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="46">
         <f>D12+$G$3/3</f>
-        <v>49153.706666666665</v>
-      </c>
-      <c r="F12" s="47">
+        <v>42153.706666666665</v>
+      </c>
+      <c r="F12" s="46">
         <f>E12+$G$3/3</f>
-        <v>64576.853333333333</v>
-      </c>
-      <c r="G12" s="48">
+        <v>50576.853333333333</v>
+      </c>
+      <c r="G12" s="47">
         <f>F12+$G$3/3</f>
-        <v>80000</v>
+        <v>59000</v>
       </c>
       <c r="H12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I12" s="24"/>
     </row>
@@ -3526,20 +3479,20 @@
         <f>L6</f>
         <v>37505.18</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="48">
         <f>D13+$G$4/3</f>
-        <v>41003.453333333331</v>
-      </c>
-      <c r="F13" s="49">
+        <v>40003.453333333331</v>
+      </c>
+      <c r="F13" s="48">
         <f>E13+$G$4/3</f>
-        <v>44501.726666666662</v>
-      </c>
-      <c r="G13" s="50">
+        <v>42501.726666666662</v>
+      </c>
+      <c r="G13" s="49">
         <f>F13+$G$4/3</f>
-        <v>47999.999999999993</v>
+        <v>44999.999999999993</v>
       </c>
       <c r="H13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
@@ -3558,25 +3511,25 @@
         <f>M6</f>
         <v>9861.31</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="48">
         <f>TREND($C$14:$D$14,$C$11:$D$11,E11)</f>
         <v>10647.120000000112</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="48">
         <f>TREND($C$14:$D$14,$C$11:$D$11,F11)</f>
         <v>11432.930000000168</v>
       </c>
-      <c r="G14" s="50">
+      <c r="G14" s="49">
         <f>TREND($C$14:$D$14,$C$11:$D$11,G11)</f>
         <v>12218.739999999991</v>
       </c>
       <c r="H14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="29">
         <f>K4</f>
@@ -3590,25 +3543,25 @@
         <f>K6</f>
         <v>4671.5600000000004</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="48">
         <f>TREND($C$15:$D$15,$C$11:$D$11,E11)</f>
         <v>4825.6699999999837</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="48">
         <f>TREND($C$15:$D$15,$C$11:$D$11,F11)</f>
         <v>4979.7799999999697</v>
       </c>
-      <c r="G15" s="50">
+      <c r="G15" s="49">
         <f>TREND($C$15:$D$15,$C$11:$D$11,G11)</f>
         <v>5133.8899999999558</v>
       </c>
       <c r="H15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="29">
         <f>N4</f>
@@ -3622,125 +3575,125 @@
         <f>N6</f>
         <v>139.80000000000001</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="50">
         <f>TREND($C$16:$D$16,$C$11:$D$11,E11)</f>
         <v>141.30000000000018</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="50">
         <f>TREND($C$16:$D$16,$C$11:$D$11,F11)</f>
         <v>142.80000000000018</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="51">
         <f>TREND($C$16:$D$16,$C$11:$D$11,G11)</f>
         <v>144.30000000000018</v>
       </c>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A18" s="69" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="I18" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
+      <c r="A18" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="I18" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A19" s="109" t="s">
+      <c r="A19" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="111" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="H19" s="76"/>
-      <c r="J19" s="119" t="s">
-        <v>91</v>
-      </c>
-      <c r="K19" s="120"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="120"/>
-      <c r="O19" s="121"/>
+      <c r="B19" s="112" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="H19" s="75"/>
+      <c r="J19" s="125" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="126"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="126"/>
+      <c r="N19" s="126"/>
+      <c r="O19" s="127"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A20" s="110"/>
-      <c r="B20" s="53">
+      <c r="A20" s="111"/>
+      <c r="B20" s="52">
         <v>2018</v>
       </c>
-      <c r="C20" s="53">
+      <c r="C20" s="52">
         <v>2019</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D20" s="52">
         <v>2020</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="52">
         <v>2021</v>
       </c>
-      <c r="F20" s="54">
+      <c r="F20" s="53">
         <v>2022</v>
       </c>
       <c r="H20" s="24"/>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="J20" s="43" t="s">
+      <c r="J20" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="O20" s="44" t="s">
         <v>161</v>
-      </c>
-      <c r="K20" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="L20" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="N20" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="O20" s="45" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="87">
+      <c r="B21" s="86">
         <f>C12-B12</f>
         <v>8159.8499999999985</v>
       </c>
-      <c r="C21" s="87">
+      <c r="C21" s="86">
         <f>D12-C12</f>
         <v>8518.2999999999993</v>
       </c>
-      <c r="D21" s="55">
+      <c r="D21" s="54">
         <f>E12-D12</f>
-        <v>15423.146666666667</v>
-      </c>
-      <c r="E21" s="55">
+        <v>8423.1466666666674</v>
+      </c>
+      <c r="E21" s="54">
         <f>F12-E12</f>
-        <v>15423.146666666667</v>
-      </c>
-      <c r="F21" s="56">
+        <v>8423.1466666666674</v>
+      </c>
+      <c r="F21" s="55">
         <f>G12-F12</f>
-        <v>15423.146666666667</v>
+        <v>8423.1466666666674</v>
       </c>
       <c r="H21" s="24"/>
       <c r="I21" s="13">
@@ -3769,27 +3722,27 @@
       <c r="A22" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="88">
+      <c r="B22" s="87">
         <f t="shared" ref="B22:F22" si="0">C13-B13</f>
         <v>2289.6900000000023</v>
       </c>
-      <c r="C22" s="88">
+      <c r="C22" s="87">
         <f t="shared" si="0"/>
         <v>2367.0299999999988</v>
       </c>
-      <c r="D22" s="57">
+      <c r="D22" s="56">
         <f t="shared" si="0"/>
-        <v>3498.2733333333308</v>
-      </c>
-      <c r="E22" s="57">
+        <v>2498.2733333333308</v>
+      </c>
+      <c r="E22" s="56">
         <f t="shared" si="0"/>
-        <v>3498.2733333333308</v>
-      </c>
-      <c r="F22" s="58">
+        <v>2498.2733333333308</v>
+      </c>
+      <c r="F22" s="57">
         <f t="shared" si="0"/>
-        <v>3498.2733333333308</v>
-      </c>
-      <c r="H22" s="42"/>
+        <v>2498.2733333333308</v>
+      </c>
+      <c r="H22" s="41"/>
       <c r="I22" s="13">
         <v>2018</v>
       </c>
@@ -3816,23 +3769,23 @@
       <c r="A23" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="88">
+      <c r="B23" s="87">
         <f t="shared" ref="B23" si="1">C14-B14</f>
         <v>661.70000000000073</v>
       </c>
-      <c r="C23" s="88">
+      <c r="C23" s="87">
         <f t="shared" ref="C23:F25" si="2">D14-C14</f>
         <v>785.80999999999949</v>
       </c>
-      <c r="D23" s="57">
+      <c r="D23" s="56">
         <f t="shared" si="2"/>
         <v>785.81000000011227</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="56">
         <f t="shared" si="2"/>
         <v>785.81000000005588</v>
       </c>
-      <c r="F23" s="58">
+      <c r="F23" s="57">
         <f t="shared" si="2"/>
         <v>785.80999999982305</v>
       </c>
@@ -3861,115 +3814,115 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A24" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="88">
+        <v>86</v>
+      </c>
+      <c r="B24" s="87">
         <f>C15-B15</f>
         <v>99.300000000000182</v>
       </c>
-      <c r="C24" s="88">
+      <c r="C24" s="87">
         <f t="shared" si="2"/>
         <v>154.11000000000058</v>
       </c>
-      <c r="D24" s="57">
+      <c r="D24" s="56">
         <f t="shared" si="2"/>
         <v>154.1099999999833</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="56">
         <f t="shared" si="2"/>
         <v>154.10999999998603</v>
       </c>
-      <c r="F24" s="58">
+      <c r="F24" s="57">
         <f t="shared" si="2"/>
         <v>154.10999999998603</v>
       </c>
-      <c r="I24" s="46" t="s">
-        <v>158</v>
+      <c r="I24" s="45" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A25" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="89">
+        <v>87</v>
+      </c>
+      <c r="B25" s="88">
         <f>C16-B16</f>
         <v>24.220000000000013</v>
       </c>
-      <c r="C25" s="89">
+      <c r="C25" s="88">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="D25" s="59">
+      <c r="D25" s="58">
         <f t="shared" si="2"/>
         <v>1.5000000000001705</v>
       </c>
-      <c r="E25" s="59">
+      <c r="E25" s="58">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="F25" s="60">
+      <c r="F25" s="59">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="D26" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="28" spans="1:18" ht="26.65" x14ac:dyDescent="0.45">
-      <c r="A28" s="71" t="s">
-        <v>169</v>
-      </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
+      <c r="A28" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="69"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
       <c r="H28" s="12"/>
-      <c r="J28" s="101" t="s">
+      <c r="J28" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="K28" s="91" t="s">
+      <c r="K28" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="92" t="s">
+      <c r="L28" s="91" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A29" s="109" t="s">
+      <c r="A29" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="123" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="111"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="122"/>
+      <c r="B29" s="120" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="121"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="93" t="s">
+      <c r="J29" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="94">
+      <c r="K29" s="93">
         <v>47855</v>
       </c>
-      <c r="L29" s="95">
+      <c r="L29" s="94">
         <v>0</v>
       </c>
       <c r="R29" s="28"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A30" s="110"/>
-      <c r="B30" s="100">
+      <c r="A30" s="111"/>
+      <c r="B30" s="99">
         <v>2017</v>
       </c>
       <c r="C30" s="20">
@@ -3988,19 +3941,19 @@
         <v>2022</v>
       </c>
       <c r="I30" s="11"/>
-      <c r="J30" s="93" t="s">
+      <c r="J30" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="K30" s="94">
+      <c r="K30" s="93">
         <v>3300</v>
       </c>
-      <c r="L30" s="95">
+      <c r="L30" s="94">
         <v>6800</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="16" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B31" s="29">
         <f>J21</f>
@@ -4014,35 +3967,35 @@
         <f>J23</f>
         <v>198494.5</v>
       </c>
-      <c r="E31" s="48">
+      <c r="E31" s="47">
         <f>D31+$K$29/5</f>
         <v>208065.5</v>
       </c>
-      <c r="F31" s="48">
+      <c r="F31" s="47">
         <f>E31+$K$29/5</f>
         <v>217636.5</v>
       </c>
-      <c r="G31" s="48">
+      <c r="G31" s="47">
         <f>F31+$K$29/5</f>
         <v>227207.5</v>
       </c>
       <c r="H31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I31" s="24"/>
-      <c r="J31" s="96" t="s">
+      <c r="J31" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="94">
+      <c r="K31" s="93">
         <v>406.15</v>
       </c>
-      <c r="L31" s="95">
+      <c r="L31" s="94">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="16" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B32" s="29">
         <f>K21-B36</f>
@@ -4056,28 +4009,28 @@
         <f>K23-D36</f>
         <v>24587.22</v>
       </c>
-      <c r="E32" s="50">
+      <c r="E32" s="49">
         <f>D32+$K$31/5</f>
         <v>24668.45</v>
       </c>
-      <c r="F32" s="50">
+      <c r="F32" s="49">
         <f>E32+$K$31/5</f>
         <v>24749.68</v>
       </c>
-      <c r="G32" s="50">
+      <c r="G32" s="49">
         <f>F32+$K$31/5</f>
         <v>24830.91</v>
       </c>
       <c r="H32" t="s">
-        <v>94</v>
-      </c>
-      <c r="J32" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="J32" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="98">
+      <c r="K32" s="97">
         <v>6822.5</v>
       </c>
-      <c r="L32" s="99">
+      <c r="L32" s="98">
         <v>0</v>
       </c>
     </row>
@@ -4097,26 +4050,26 @@
         <f>L23</f>
         <v>6780</v>
       </c>
-      <c r="E33" s="50">
+      <c r="E33" s="49">
         <f>D33+$K$30/5</f>
         <v>7440</v>
       </c>
-      <c r="F33" s="50">
+      <c r="F33" s="49">
         <f>E33+$K$30/5</f>
         <v>8100</v>
       </c>
-      <c r="G33" s="50">
+      <c r="G33" s="49">
         <f>F33+$K$30/5</f>
         <v>8760</v>
       </c>
       <c r="H33" t="s">
-        <v>94</v>
-      </c>
-      <c r="J33" s="112" t="s">
-        <v>108</v>
-      </c>
-      <c r="K33" s="113"/>
-      <c r="L33" s="113"/>
+        <v>93</v>
+      </c>
+      <c r="J33" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="K33" s="114"/>
+      <c r="L33" s="114"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" s="16" t="s">
@@ -4134,20 +4087,20 @@
         <f>M23</f>
         <v>45399.22</v>
       </c>
-      <c r="E34" s="50">
+      <c r="E34" s="49">
         <f>D34+$K$32/5</f>
         <v>46763.72</v>
       </c>
-      <c r="F34" s="50">
+      <c r="F34" s="49">
         <f>E34+$K$32/5</f>
         <v>48128.22</v>
       </c>
-      <c r="G34" s="50">
+      <c r="G34" s="49">
         <f>F34+$K$32/5</f>
         <v>49492.72</v>
       </c>
       <c r="H34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.45">
@@ -4166,22 +4119,22 @@
         <f>N23</f>
         <v>6760</v>
       </c>
-      <c r="E35" s="50">
-        <v>0</v>
-      </c>
-      <c r="F35" s="50">
-        <v>0</v>
-      </c>
-      <c r="G35" s="50">
+      <c r="E35" s="49">
+        <v>0</v>
+      </c>
+      <c r="F35" s="49">
+        <v>0</v>
+      </c>
+      <c r="G35" s="49">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" s="16" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B36" s="29">
         <f>B51</f>
@@ -4195,22 +4148,22 @@
         <f>B51</f>
         <v>350</v>
       </c>
-      <c r="E36" s="50">
-        <v>0</v>
-      </c>
-      <c r="F36" s="50">
-        <v>0</v>
-      </c>
-      <c r="G36" s="50">
+      <c r="E36" s="49">
+        <v>0</v>
+      </c>
+      <c r="F36" s="49">
+        <v>0</v>
+      </c>
+      <c r="G36" s="49">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" s="16" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B37" s="29">
         <f>O21</f>
@@ -4224,167 +4177,167 @@
         <f>O23</f>
         <v>509.71</v>
       </c>
-      <c r="E37" s="52">
-        <v>0</v>
-      </c>
-      <c r="F37" s="52">
-        <v>0</v>
-      </c>
-      <c r="G37" s="52">
+      <c r="E37" s="51">
+        <v>0</v>
+      </c>
+      <c r="F37" s="51">
+        <v>0</v>
+      </c>
+      <c r="G37" s="51">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A39" s="69" t="s">
-        <v>163</v>
-      </c>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
+      <c r="A39" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A40" s="109" t="s">
+      <c r="A40" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="124" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" s="124"/>
-      <c r="D40" s="124"/>
-      <c r="E40" s="124"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="125"/>
-      <c r="H40" s="125"/>
-      <c r="I40" s="125"/>
-      <c r="J40" s="125"/>
-      <c r="K40" s="126"/>
+      <c r="B40" s="122" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="122"/>
+      <c r="D40" s="122"/>
+      <c r="E40" s="122"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="123"/>
+      <c r="H40" s="123"/>
+      <c r="I40" s="123"/>
+      <c r="J40" s="123"/>
+      <c r="K40" s="124"/>
       <c r="M40" s="28"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A41" s="110"/>
-      <c r="B41" s="54">
+      <c r="A41" s="111"/>
+      <c r="B41" s="53">
         <v>2018</v>
       </c>
-      <c r="C41" s="53">
+      <c r="C41" s="52">
         <v>2019</v>
       </c>
-      <c r="D41" s="53">
+      <c r="D41" s="52">
         <v>2020</v>
       </c>
-      <c r="E41" s="53">
+      <c r="E41" s="52">
         <v>2021</v>
       </c>
-      <c r="F41" s="54">
+      <c r="F41" s="53">
         <v>2022</v>
       </c>
-      <c r="G41" s="53">
+      <c r="G41" s="52">
         <v>2023</v>
       </c>
-      <c r="H41" s="53">
+      <c r="H41" s="52">
         <v>2024</v>
       </c>
-      <c r="I41" s="53">
+      <c r="I41" s="52">
         <v>2025</v>
       </c>
-      <c r="J41" s="53">
+      <c r="J41" s="52">
         <v>2026</v>
       </c>
-      <c r="K41" s="54">
+      <c r="K41" s="53">
         <v>2027</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="B42" s="87">
+        <v>142</v>
+      </c>
+      <c r="B42" s="86">
         <f>C31-(B31-'BCRbQ Data'!B2)</f>
         <v>110</v>
       </c>
-      <c r="C42" s="87">
+      <c r="C42" s="86">
         <f>D31-(C31-'BCRbQ Data'!C2)</f>
         <v>8697</v>
       </c>
-      <c r="D42" s="55">
+      <c r="D42" s="54">
         <f>E31-D31</f>
         <v>9571</v>
       </c>
-      <c r="E42" s="55">
+      <c r="E42" s="54">
         <f>F31-E31</f>
         <v>9571</v>
       </c>
-      <c r="F42" s="55">
+      <c r="F42" s="54">
         <f t="shared" ref="F42" si="3">G31-F31</f>
         <v>9571</v>
       </c>
-      <c r="G42" s="55">
+      <c r="G42" s="54">
         <f>$L$29/5</f>
         <v>0</v>
       </c>
-      <c r="H42" s="55">
+      <c r="H42" s="54">
         <f t="shared" ref="H42:K42" si="4">$L$29/5</f>
         <v>0</v>
       </c>
-      <c r="I42" s="55">
+      <c r="I42" s="54">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J42" s="55">
+      <c r="J42" s="54">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K42" s="55">
+      <c r="K42" s="54">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="B43" s="88">
+        <v>147</v>
+      </c>
+      <c r="B43" s="87">
         <f>IF((C32-(B32-'BCRbQ Data'!B3))&lt;=0,1,C32-(B32-'BCRbQ Data'!B3))</f>
         <v>1</v>
       </c>
-      <c r="C43" s="88">
+      <c r="C43" s="87">
         <f t="shared" ref="B43:C47" si="5">IF((D32-C32)&lt;=0,1,D32-C32)</f>
         <v>1</v>
       </c>
-      <c r="D43" s="57">
+      <c r="D43" s="56">
         <f t="shared" ref="D43:F45" si="6">E32-D32</f>
         <v>81.229999999999563</v>
       </c>
-      <c r="E43" s="57">
+      <c r="E43" s="56">
         <f t="shared" si="6"/>
         <v>81.229999999999563</v>
       </c>
-      <c r="F43" s="57">
+      <c r="F43" s="56">
         <f t="shared" si="6"/>
         <v>81.229999999999563</v>
       </c>
-      <c r="G43" s="57">
+      <c r="G43" s="56">
         <f>$L$31/5</f>
         <v>0</v>
       </c>
-      <c r="H43" s="57">
+      <c r="H43" s="56">
         <f t="shared" ref="H43:K43" si="7">$L$31/5</f>
         <v>0</v>
       </c>
-      <c r="I43" s="57">
+      <c r="I43" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J43" s="57">
+      <c r="J43" s="56">
         <f>$L$31/5</f>
         <v>0</v>
       </c>
-      <c r="K43" s="57">
+      <c r="K43" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -4395,43 +4348,43 @@
       <c r="A44" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="88">
+      <c r="B44" s="87">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="C44" s="88">
+      <c r="C44" s="87">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="D44" s="57">
+      <c r="D44" s="56">
         <f t="shared" si="6"/>
         <v>660</v>
       </c>
-      <c r="E44" s="57">
+      <c r="E44" s="56">
         <f t="shared" si="6"/>
         <v>660</v>
       </c>
-      <c r="F44" s="57">
+      <c r="F44" s="56">
         <f t="shared" si="6"/>
         <v>660</v>
       </c>
-      <c r="G44" s="57">
+      <c r="G44" s="56">
         <f>$L$30/5</f>
         <v>1360</v>
       </c>
-      <c r="H44" s="57">
+      <c r="H44" s="56">
         <f t="shared" ref="H44:K44" si="8">$L$30/5</f>
         <v>1360</v>
       </c>
-      <c r="I44" s="57">
+      <c r="I44" s="56">
         <f t="shared" si="8"/>
         <v>1360</v>
       </c>
-      <c r="J44" s="57">
+      <c r="J44" s="56">
         <f t="shared" si="8"/>
         <v>1360</v>
       </c>
-      <c r="K44" s="57">
+      <c r="K44" s="56">
         <f t="shared" si="8"/>
         <v>1360</v>
       </c>
@@ -4441,43 +4394,43 @@
       <c r="A45" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="88">
+      <c r="B45" s="87">
         <f t="shared" si="5"/>
         <v>435.80000000000291</v>
       </c>
-      <c r="C45" s="88">
+      <c r="C45" s="87">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="D45" s="57">
+      <c r="D45" s="56">
         <f t="shared" si="6"/>
         <v>1364.5</v>
       </c>
-      <c r="E45" s="57">
+      <c r="E45" s="56">
         <f t="shared" si="6"/>
         <v>1364.5</v>
       </c>
-      <c r="F45" s="57">
+      <c r="F45" s="56">
         <f t="shared" si="6"/>
         <v>1364.5</v>
       </c>
-      <c r="G45" s="57">
+      <c r="G45" s="56">
         <f>$L$32/5</f>
         <v>0</v>
       </c>
-      <c r="H45" s="57">
+      <c r="H45" s="56">
         <f t="shared" ref="H45:K45" si="9">$L$32/5</f>
         <v>0</v>
       </c>
-      <c r="I45" s="57">
+      <c r="I45" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J45" s="57">
+      <c r="J45" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K45" s="57">
+      <c r="K45" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -4486,88 +4439,88 @@
       <c r="A46" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="88">
+      <c r="B46" s="87">
         <f>C35-(B35-'BCRbQ Data'!B13)</f>
         <v>6360</v>
       </c>
-      <c r="C46" s="88">
+      <c r="C46" s="87">
         <f>D35-(C35-'BCRbQ Data'!C13)</f>
         <v>500</v>
       </c>
-      <c r="D46" s="57">
+      <c r="D46" s="56">
         <f>MAX(0,E35-D35)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="57">
+      <c r="E46" s="56">
         <f t="shared" ref="E46:F48" si="10">F35-E35</f>
         <v>0</v>
       </c>
-      <c r="F46" s="57">
+      <c r="F46" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G46" s="57">
+      <c r="G46" s="56">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H46" s="57">
+      <c r="H46" s="56">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="I46" s="57">
+      <c r="I46" s="56">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="J46" s="57">
+      <c r="J46" s="56">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="K46" s="57">
+      <c r="K46" s="56">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="B47" s="88">
+        <v>148</v>
+      </c>
+      <c r="B47" s="87">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="C47" s="88">
+      <c r="C47" s="87">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="D47" s="57">
+      <c r="D47" s="56">
         <f>MAX(0,E36-D36)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="57">
+      <c r="E47" s="56">
         <f>F36-E36</f>
         <v>0</v>
       </c>
-      <c r="F47" s="57">
+      <c r="F47" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G47" s="57">
+      <c r="G47" s="56">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H47" s="57">
+      <c r="H47" s="56">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="I47" s="57">
+      <c r="I47" s="56">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="J47" s="57">
+      <c r="J47" s="56">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="K47" s="57">
+      <c r="K47" s="56">
         <f>0</f>
         <v>0</v>
       </c>
@@ -4576,45 +4529,45 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="B48" s="89">
+        <v>161</v>
+      </c>
+      <c r="B48" s="88">
         <f>IF((C37-(B37-'BCRbQ Data'!B11))&lt;=0,1,C37-(B37-'BCRbQ Data'!B11))</f>
         <v>1</v>
       </c>
-      <c r="C48" s="89">
+      <c r="C48" s="88">
         <f>IF((D37-(C37-'BCRbQ Data'!C11))&lt;=0,1,D37-(C37-'BCRbQ Data'!C11))</f>
         <v>1</v>
       </c>
-      <c r="D48" s="59">
+      <c r="D48" s="58">
         <f>MAX(0,E37-D37)</f>
         <v>0</v>
       </c>
-      <c r="E48" s="59">
+      <c r="E48" s="58">
         <f>F37-E37</f>
         <v>0</v>
       </c>
-      <c r="F48" s="59">
+      <c r="F48" s="58">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G48" s="59">
+      <c r="G48" s="58">
         <f>F48</f>
         <v>0</v>
       </c>
-      <c r="H48" s="59">
+      <c r="H48" s="58">
         <f t="shared" ref="H48:J48" si="11">G48</f>
         <v>0</v>
       </c>
-      <c r="I48" s="59">
+      <c r="I48" s="58">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J48" s="59">
+      <c r="J48" s="58">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K48" s="59">
+      <c r="K48" s="58">
         <f>J48</f>
         <v>0</v>
       </c>
@@ -4625,44 +4578,44 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="D49" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51" s="90" t="s">
-        <v>164</v>
+      <c r="A51" s="89" t="s">
+        <v>145</v>
       </c>
       <c r="B51">
         <v>350</v>
       </c>
       <c r="C51" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="D51" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B40:K40"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="J19:O19"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B40:K40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4687,14 +4640,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G1" s="127" t="s">
-        <v>190</v>
-      </c>
-      <c r="H1" s="128"/>
+      <c r="G1" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="129"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B2" s="1">
         <v>2017</v>
@@ -5125,7 +5078,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="B1">
         <v>2018</v>
@@ -5192,7 +5145,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5328,49 +5281,49 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="102" t="s">
-        <v>191</v>
+      <c r="A1" s="101" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="102" t="s">
-        <v>192</v>
+      <c r="A2" s="101" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="102" t="s">
-        <v>193</v>
+      <c r="A3" s="101" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A4" s="103"/>
+      <c r="A4" s="102"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="129" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="129"/>
+      <c r="C4" s="130" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="130"/>
       <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="A5" s="104" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="104" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="105" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>198</v>
+      <c r="A5" s="103" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="103" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="104" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A6" s="106" t="s">
-        <v>199</v>
+      <c r="A6" s="105" t="s">
+        <v>179</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -5378,8 +5331,8 @@
       <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="106" t="s">
-        <v>200</v>
+      <c r="A7" s="105" t="s">
+        <v>180</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -5391,10 +5344,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D8" s="16">
         <v>705.6</v>
@@ -5406,10 +5359,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="D9" s="13">
         <v>400</v>
@@ -5421,10 +5374,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="D10" s="13">
         <v>150</v>
@@ -5436,10 +5389,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="D11" s="13">
         <v>900</v>
@@ -5451,10 +5404,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="D12" s="13">
         <v>900</v>
@@ -5466,10 +5419,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="D13" s="13">
         <v>250</v>
@@ -5477,10 +5430,10 @@
       <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A14" s="106"/>
+      <c r="A14" s="105"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="D14" s="13">
         <f>SUM(D8:D13)</f>
@@ -5496,8 +5449,8 @@
       <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A16" s="106" t="s">
-        <v>214</v>
+      <c r="A16" s="105" t="s">
+        <v>194</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -5509,16 +5462,16 @@
         <v>1</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="D17" s="13">
         <v>1000</v>
       </c>
-      <c r="E17" s="107" t="s">
-        <v>217</v>
+      <c r="E17" s="106" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.45">
@@ -5526,16 +5479,16 @@
         <v>2</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="D18" s="13">
         <v>80</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.45">
@@ -5543,16 +5496,16 @@
         <v>3</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="D19" s="13">
         <v>500</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.45">
@@ -5667,7 +5620,7 @@
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="B22" s="28">
         <f>D22</f>
@@ -6005,7 +5958,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="74" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="15">
@@ -6018,19 +5971,19 @@
       </c>
       <c r="D6" s="15">
         <f>'Actuals-based BPMCCS adjustment'!D22</f>
-        <v>3498.2733333333308</v>
+        <v>2498.2733333333308</v>
       </c>
       <c r="E6" s="15">
         <f>'Actuals-based BPMCCS adjustment'!E22</f>
-        <v>3498.2733333333308</v>
+        <v>2498.2733333333308</v>
       </c>
       <c r="F6" s="15">
         <f>'Actuals-based BPMCCS adjustment'!F22</f>
-        <v>3498.2733333333308</v>
+        <v>2498.2733333333308</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="74" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="15">
@@ -6043,24 +5996,24 @@
       </c>
       <c r="D7" s="15">
         <f>'Actuals-based BPMCCS adjustment'!D21</f>
-        <v>15423.146666666667</v>
+        <v>8423.1466666666674</v>
       </c>
       <c r="E7" s="15">
         <f>'Actuals-based BPMCCS adjustment'!E21</f>
-        <v>15423.146666666667</v>
+        <v>8423.1466666666674</v>
       </c>
       <c r="F7" s="15">
         <f>'Actuals-based BPMCCS adjustment'!F21</f>
-        <v>15423.146666666667</v>
+        <v>8423.1466666666674</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="74" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="74" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="28">
@@ -6164,7 +6117,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="74" t="s">
         <v>76</v>
       </c>
       <c r="B17" s="28">
@@ -6200,8 +6153,8 @@
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6829,15 +6782,15 @@
       </c>
       <c r="G6" s="28">
         <f>Calcs!D6</f>
-        <v>3498.2733333333308</v>
+        <v>2498.2733333333308</v>
       </c>
       <c r="H6" s="28">
         <f>Calcs!E6</f>
-        <v>3498.2733333333308</v>
+        <v>2498.2733333333308</v>
       </c>
       <c r="I6" s="28">
         <f>Calcs!F6</f>
-        <v>3498.2733333333308</v>
+        <v>2498.2733333333308</v>
       </c>
       <c r="J6" s="28">
         <f>Calcs!G6</f>
@@ -6948,15 +6901,15 @@
       </c>
       <c r="G7" s="28">
         <f>Calcs!D7</f>
-        <v>15423.146666666667</v>
+        <v>8423.1466666666674</v>
       </c>
       <c r="H7" s="28">
         <f>Calcs!E7</f>
-        <v>15423.146666666667</v>
+        <v>8423.1466666666674</v>
       </c>
       <c r="I7" s="28">
         <f>Calcs!F7</f>
-        <v>15423.146666666667</v>
+        <v>8423.1466666666674</v>
       </c>
       <c r="J7" s="28">
         <f>Calcs!G7</f>
